--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2738039.682604882</v>
+        <v>-2738780.145425605</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.213769039549</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089986</v>
+        <v>129.0500964427741</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.0845181045929</v>
       </c>
       <c r="H11" t="n">
         <v>202.6210018711094</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642664</v>
+        <v>59.42064602642667</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.87283976874596</v>
+        <v>65.87283976874599</v>
       </c>
       <c r="T11" t="n">
-        <v>89.18341408247053</v>
+        <v>89.18341408247056</v>
       </c>
       <c r="U11" t="n">
-        <v>45.80008829760064</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.0356574374221</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.5213376233408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1455,16 +1455,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>25.92847942268818</v>
       </c>
       <c r="F12" t="n">
-        <v>13.35261136067109</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0751276698277</v>
+        <v>11.66477073247692</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.49414262488443</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>34.9813529462269</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T12" t="n">
-        <v>67.36632966027142</v>
+        <v>67.36632966027145</v>
       </c>
       <c r="U12" t="n">
-        <v>94.20712384475</v>
+        <v>94.20712384475003</v>
       </c>
       <c r="V12" t="n">
-        <v>133.5394543481193</v>
+        <v>101.0839861167125</v>
       </c>
       <c r="W12" t="n">
         <v>119.9783821282068</v>
       </c>
       <c r="X12" t="n">
-        <v>74.05638417076469</v>
+        <v>74.05638417076472</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.96609474459157</v>
+        <v>73.9660947445916</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.11537914922451</v>
+        <v>48.11537914922454</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53022006591505</v>
+        <v>35.53022006591507</v>
       </c>
       <c r="D13" t="n">
-        <v>16.89887198549957</v>
+        <v>16.8988719854996</v>
       </c>
       <c r="E13" t="n">
-        <v>14.71736161385638</v>
+        <v>14.71736161385641</v>
       </c>
       <c r="F13" t="n">
-        <v>13.70444699021846</v>
+        <v>13.70444699021849</v>
       </c>
       <c r="G13" t="n">
-        <v>36.04936959028112</v>
+        <v>36.04936959028115</v>
       </c>
       <c r="H13" t="n">
-        <v>28.51003926304838</v>
+        <v>28.51003926304841</v>
       </c>
       <c r="I13" t="n">
-        <v>16.96724755892979</v>
+        <v>16.96724755892982</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.45957938437348</v>
+        <v>35.45957938437351</v>
       </c>
       <c r="S13" t="n">
-        <v>88.37870840529474</v>
+        <v>88.37870840529477</v>
       </c>
       <c r="T13" t="n">
-        <v>95.26758743494617</v>
+        <v>95.26758743494619</v>
       </c>
       <c r="U13" t="n">
         <v>154.5901551200255</v>
@@ -1591,10 +1591,10 @@
         <v>154.8063973038782</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99305435632436</v>
+        <v>93.99305435632439</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.868052319382</v>
+        <v>86.86805231938203</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>242.3036578443162</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879703</v>
+        <v>222.9664405879702</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395491</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089988</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>283.084518104593</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>65.87283976874602</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.18341408247059</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.5243676847003</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>140.5749124336067</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="15">
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.81658261715467</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>40.99189795560301</v>
       </c>
       <c r="D15" t="n">
-        <v>15.72846453192608</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>25.92847942268827</v>
+        <v>25.92847942268821</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0751276698277</v>
+        <v>5.358526637114958</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.306244095361675</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>166.6979539789397</v>
+        <v>34.98135294622696</v>
       </c>
       <c r="T15" t="n">
-        <v>199.0829306929842</v>
+        <v>67.36632966027148</v>
       </c>
       <c r="U15" t="n">
-        <v>94.20712384475011</v>
+        <v>94.20712384475006</v>
       </c>
       <c r="V15" t="n">
-        <v>217.0335969730027</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>119.9783821282069</v>
       </c>
       <c r="X15" t="n">
-        <v>74.0563841707648</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.96609474459169</v>
+        <v>73.96609474459163</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922462</v>
+        <v>48.11537914922457</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591516</v>
+        <v>35.5302200659151</v>
       </c>
       <c r="D16" t="n">
-        <v>16.89887198549968</v>
+        <v>16.89887198549962</v>
       </c>
       <c r="E16" t="n">
-        <v>14.7173616138565</v>
+        <v>14.71736161385644</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021857</v>
+        <v>13.70444699021851</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028123</v>
+        <v>36.04936959028117</v>
       </c>
       <c r="H16" t="n">
-        <v>28.5100392630485</v>
+        <v>28.51003926304844</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755892991</v>
+        <v>16.96724755892985</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.4595793843736</v>
+        <v>35.45957938437354</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529486</v>
+        <v>88.3787084052948</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494628</v>
+        <v>95.26758743494622</v>
       </c>
       <c r="U16" t="n">
-        <v>154.5901551200256</v>
+        <v>154.5901551200255</v>
       </c>
       <c r="V16" t="n">
         <v>120.4210422911153</v>
@@ -1828,10 +1828,10 @@
         <v>154.8063973038783</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632448</v>
+        <v>93.99305435632442</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938212</v>
+        <v>86.86805231938206</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.3543524373625</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8934025448895</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D17" t="n">
-        <v>117.3035523945649</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E17" t="n">
-        <v>144.5508808461437</v>
+        <v>144.5508808461438</v>
       </c>
       <c r="F17" t="n">
-        <v>169.4965565155934</v>
+        <v>169.4965565155935</v>
       </c>
       <c r="G17" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770415</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149209</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401687</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W17" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X17" t="n">
-        <v>132.351611452351</v>
+        <v>132.3516114523511</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.8584494299355</v>
+        <v>148.8584494299356</v>
       </c>
     </row>
     <row r="18">
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1932,13 +1932,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1974,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>74.42850705254367</v>
       </c>
       <c r="V18" t="n">
-        <v>229.5701121667063</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>31.81741139022014</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662022</v>
+        <v>229.3601513350525</v>
       </c>
       <c r="V19" t="n">
-        <v>14.75815409770996</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W19" t="n">
-        <v>49.14350911047296</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.3543524373625</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448895</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D20" t="n">
-        <v>117.3035523945649</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461437</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F20" t="n">
-        <v>169.4965565155934</v>
+        <v>169.4965565155935</v>
       </c>
       <c r="G20" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770415</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149209</v>
+        <v>13.92603421149222</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401687</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W20" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X20" t="n">
-        <v>132.351611452351</v>
+        <v>132.3516114523511</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.8584494299355</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>101.1214074094415</v>
       </c>
       <c r="C21" t="n">
-        <v>107.7192941980056</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.49414262488443</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9237248774628</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>14.31549393480157</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.3601513350527</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V22" t="n">
-        <v>14.75815409770996</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W22" t="n">
-        <v>49.14350911047296</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>180.4328844084322</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.3543524373625</v>
+        <v>145.3543524373626</v>
       </c>
       <c r="C23" t="n">
-        <v>127.8934025448895</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D23" t="n">
-        <v>117.3035523945649</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E23" t="n">
-        <v>144.5508808461437</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F23" t="n">
-        <v>169.4965565155934</v>
+        <v>169.4965565155935</v>
       </c>
       <c r="G23" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H23" t="n">
-        <v>96.95811367770415</v>
+        <v>96.95811367770426</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149209</v>
+        <v>13.92603421149222</v>
       </c>
       <c r="V23" t="n">
-        <v>90.37276924401687</v>
+        <v>90.37276924401698</v>
       </c>
       <c r="W23" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X23" t="n">
-        <v>132.351611452351</v>
+        <v>132.3516114523511</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.8584494299355</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,16 +2406,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0751276698277</v>
+        <v>58.4541472792862</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>69.93601524116414</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2448,19 +2448,19 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T24" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>31.74903581678991</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>148.6838485916426</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.92726692662022</v>
+        <v>48.92726692662033</v>
       </c>
       <c r="V25" t="n">
-        <v>14.75815409770996</v>
+        <v>14.75815409771008</v>
       </c>
       <c r="W25" t="n">
-        <v>49.14350911047296</v>
+        <v>49.14350911047308</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>180.4328844084322</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>184.2935426253701</v>
       </c>
       <c r="I26" t="n">
-        <v>41.09318678068736</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.48912337141527</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>76.43162686803049</v>
       </c>
       <c r="E27" t="n">
-        <v>7.601020176948879</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>84.00546946691207</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2688,10 +2688,10 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9237248774628</v>
+        <v>75.87966459901072</v>
       </c>
       <c r="V27" t="n">
-        <v>82.7565268709732</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2810,7 +2810,7 @@
         <v>184.2935426253701</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068736</v>
+        <v>41.09318678068733</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300668</v>
+        <v>47.54538052300666</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673126</v>
+        <v>70.85595483673123</v>
       </c>
       <c r="U29" t="n">
-        <v>101.2614631591581</v>
+        <v>101.261463159158</v>
       </c>
       <c r="V29" t="n">
         <v>177.7081981916828</v>
@@ -2855,7 +2855,7 @@
         <v>199.1969084389609</v>
       </c>
       <c r="X29" t="n">
-        <v>219.687040400017</v>
+        <v>219.6870404000169</v>
       </c>
       <c r="Y29" t="n">
         <v>236.1938783776015</v>
@@ -2874,10 +2874,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>7.601020176948879</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5113268420275661</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>83.49414262488443</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048762</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T30" t="n">
-        <v>199.0829306929842</v>
+        <v>49.03887041453211</v>
       </c>
       <c r="U30" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
-        <v>82.7565268709732</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>139.9639485282043</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>55.63863549885227</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348523</v>
+        <v>29.7879199034852</v>
       </c>
       <c r="C31" t="n">
-        <v>17.20276082017577</v>
+        <v>17.20276082017574</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.72191034454184</v>
+        <v>17.72191034454181</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730911</v>
+        <v>10.18258001730908</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863421</v>
+        <v>17.13212013863418</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955547</v>
+        <v>70.05124915955544</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920689</v>
+        <v>76.94012818920686</v>
       </c>
       <c r="U31" t="n">
         <v>136.2626958742862</v>
@@ -3013,10 +3013,10 @@
         <v>136.4789380581389</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058509</v>
+        <v>75.66559511058506</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364273</v>
+        <v>68.5405930736427</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>232.6897813850285</v>
+        <v>232.6897813850286</v>
       </c>
       <c r="C32" t="n">
-        <v>215.2288314925555</v>
+        <v>215.2288314925556</v>
       </c>
       <c r="D32" t="n">
-        <v>204.6389813422309</v>
+        <v>204.638981342231</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8863097938097</v>
+        <v>231.8863097938098</v>
       </c>
       <c r="F32" t="n">
-        <v>256.8319854632593</v>
+        <v>256.8319854632595</v>
       </c>
       <c r="G32" t="n">
-        <v>264.7570588588536</v>
+        <v>264.7570588588537</v>
       </c>
       <c r="H32" t="n">
-        <v>184.2935426253701</v>
+        <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09318678068733</v>
+        <v>41.09318678068746</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300666</v>
+        <v>47.54538052300677</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673123</v>
+        <v>70.85595483673134</v>
       </c>
       <c r="U32" t="n">
-        <v>101.261463159158</v>
+        <v>101.2614631591582</v>
       </c>
       <c r="V32" t="n">
-        <v>177.7081981916828</v>
+        <v>177.7081981916829</v>
       </c>
       <c r="W32" t="n">
-        <v>199.1969084389609</v>
+        <v>199.196908438961</v>
       </c>
       <c r="X32" t="n">
-        <v>219.6870404000169</v>
+        <v>219.6870404000171</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.1938783776015</v>
+        <v>236.1938783776016</v>
       </c>
     </row>
     <row r="33">
@@ -3111,22 +3111,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.6433667609296</v>
+        <v>84.00546946691195</v>
       </c>
       <c r="I33" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.49414262488443</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>166.6979539789397</v>
+        <v>16.6538937004877</v>
       </c>
       <c r="T33" t="n">
-        <v>199.0829306929842</v>
+        <v>49.03887041453223</v>
       </c>
       <c r="U33" t="n">
-        <v>75.8796645990107</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>101.6509228824675</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>171.9240658926541</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>55.63863549885227</v>
+        <v>55.63863549885238</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.7879199034852</v>
+        <v>29.78791990348532</v>
       </c>
       <c r="C34" t="n">
-        <v>17.20276082017574</v>
+        <v>17.20276082017585</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454181</v>
+        <v>17.72191034454193</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730908</v>
+        <v>10.18258001730919</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863418</v>
+        <v>17.13212013863429</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955544</v>
+        <v>70.05124915955555</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920686</v>
+        <v>76.94012818920697</v>
       </c>
       <c r="U34" t="n">
-        <v>136.2626958742862</v>
+        <v>136.2626958742863</v>
       </c>
       <c r="V34" t="n">
-        <v>102.0935830453759</v>
+        <v>102.093583045376</v>
       </c>
       <c r="W34" t="n">
-        <v>136.4789380581389</v>
+        <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058506</v>
+        <v>75.66559511058517</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.5405930736427</v>
+        <v>68.54059307364281</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>169.4965565155935</v>
       </c>
       <c r="G35" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H35" t="n">
-        <v>96.9581136777042</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.92603421149216</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V35" t="n">
-        <v>90.37276924401692</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W35" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X35" t="n">
         <v>132.3516114523511</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3351,19 +3351,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>75.68088640461286</v>
       </c>
       <c r="I36" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>16.83141544799277</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.92726692662028</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V37" t="n">
-        <v>14.75815409771002</v>
+        <v>195.1910385061423</v>
       </c>
       <c r="W37" t="n">
-        <v>49.14350911047302</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>180.4328844084323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>145.3543524373626</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448895</v>
+        <v>127.8934025448896</v>
       </c>
       <c r="D38" t="n">
-        <v>117.3035523945649</v>
+        <v>117.303552394565</v>
       </c>
       <c r="E38" t="n">
         <v>144.5508808461438</v>
       </c>
       <c r="F38" t="n">
-        <v>169.4965565155934</v>
+        <v>169.4965565155935</v>
       </c>
       <c r="G38" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770418</v>
+        <v>96.95811367770423</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-1.575699570821598e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149214</v>
+        <v>13.92603421149218</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401689</v>
+        <v>90.37276924401695</v>
       </c>
       <c r="W38" t="n">
-        <v>111.861479491295</v>
+        <v>111.8614794912951</v>
       </c>
       <c r="X38" t="n">
-        <v>132.351611452351</v>
+        <v>132.3516114523511</v>
       </c>
       <c r="Y38" t="n">
         <v>148.8584494299356</v>
@@ -3585,10 +3585,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>80.15602968011628</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.49414262488443</v>
       </c>
       <c r="S39" t="n">
         <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U39" t="n">
-        <v>12.48805402446742</v>
+        <v>203.3688888823307</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>14.31549393480165</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>0.6009042264948599</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662025</v>
+        <v>48.92726692662031</v>
       </c>
       <c r="V40" t="n">
-        <v>14.75815409770999</v>
+        <v>14.75815409771005</v>
       </c>
       <c r="W40" t="n">
-        <v>49.14350911047299</v>
+        <v>49.14350911047305</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.81741139021999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>161.8338265482973</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558243</v>
+        <v>144.3728766558242</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265054997</v>
+        <v>133.7830265054996</v>
       </c>
       <c r="E41" t="n">
         <v>161.0303549570785</v>
       </c>
       <c r="F41" t="n">
-        <v>185.9760306265282</v>
+        <v>185.9760306265281</v>
       </c>
       <c r="G41" t="n">
         <v>193.9011040221224</v>
       </c>
       <c r="H41" t="n">
-        <v>113.437587788639</v>
+        <v>113.4375877886389</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242691</v>
+        <v>30.40550832242682</v>
       </c>
       <c r="V41" t="n">
-        <v>106.8522433549517</v>
+        <v>106.8522433549516</v>
       </c>
       <c r="W41" t="n">
-        <v>128.3409536022298</v>
+        <v>128.3409536022297</v>
       </c>
       <c r="X41" t="n">
-        <v>148.8310855632858</v>
+        <v>148.8310855632857</v>
       </c>
       <c r="Y41" t="n">
         <v>165.3379235408703</v>
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>72.49741398266653</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>119.1281793110447</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9237248774628</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>120.1006484492985</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.084173352475712</v>
+        <v>6.084173352475626</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755502</v>
+        <v>65.40674103755494</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864476</v>
+        <v>151.3382766579436</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140776</v>
+        <v>65.62298322140768</v>
       </c>
       <c r="X43" t="n">
-        <v>4.809640273853915</v>
+        <v>4.80964027385383</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242682</v>
+        <v>30.40550832242681</v>
       </c>
       <c r="V44" t="n">
         <v>106.8522433549516</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I45" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>38.16322783245921</v>
       </c>
       <c r="S45" t="n">
         <v>166.6979539789397</v>
@@ -4110,19 +4110,19 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>5.023709762279461</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>11.90057203424195</v>
       </c>
       <c r="W45" t="n">
-        <v>149.2962236153761</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>120.1006484492989</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>4.80964027385383</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>120.1006484492989</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1061.717899381387</v>
+        <v>947.3354759458514</v>
       </c>
       <c r="C11" t="n">
-        <v>825.8024541911905</v>
+        <v>711.4200307556546</v>
       </c>
       <c r="D11" t="n">
-        <v>825.8024541911905</v>
+        <v>711.4200307556546</v>
       </c>
       <c r="E11" t="n">
-        <v>573.0612733431611</v>
+        <v>711.4200307556546</v>
       </c>
       <c r="F11" t="n">
-        <v>295.1224403037685</v>
+        <v>581.0663979851756</v>
       </c>
       <c r="G11" t="n">
-        <v>295.1224403037685</v>
+        <v>295.1224403037686</v>
       </c>
       <c r="H11" t="n">
-        <v>90.4547616460821</v>
+        <v>90.45476164608215</v>
       </c>
       <c r="I11" t="n">
         <v>30.43390707393397</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020939</v>
+        <v>60.75260108020947</v>
       </c>
       <c r="K11" t="n">
-        <v>226.9372683326553</v>
+        <v>226.9372683326554</v>
       </c>
       <c r="L11" t="n">
-        <v>485.3806706550279</v>
+        <v>485.380670655028</v>
       </c>
       <c r="M11" t="n">
-        <v>789.5552979241018</v>
+        <v>789.5552979241019</v>
       </c>
       <c r="N11" t="n">
-        <v>1084.019791121358</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O11" t="n">
-        <v>1316.886624186928</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P11" t="n">
         <v>1477.958695736266</v>
       </c>
       <c r="Q11" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R11" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S11" t="n">
-        <v>1455.157131708066</v>
+        <v>1455.157131708067</v>
       </c>
       <c r="T11" t="n">
         <v>1365.072875059106</v>
       </c>
       <c r="U11" t="n">
-        <v>1318.810159606984</v>
+        <v>1365.072875059106</v>
       </c>
       <c r="V11" t="n">
-        <v>1318.810159606984</v>
+        <v>1167.057059465751</v>
       </c>
       <c r="W11" t="n">
-        <v>1318.810159606984</v>
+        <v>947.3354759458514</v>
       </c>
       <c r="X11" t="n">
-        <v>1318.810159606984</v>
+        <v>947.3354759458514</v>
       </c>
       <c r="Y11" t="n">
-        <v>1061.717899381387</v>
+        <v>947.3354759458514</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>665.0060121636857</v>
+        <v>649.07975946023</v>
       </c>
       <c r="C12" t="n">
-        <v>490.5529828825587</v>
+        <v>474.626730179103</v>
       </c>
       <c r="D12" t="n">
-        <v>341.6185732213074</v>
+        <v>325.6923205178517</v>
       </c>
       <c r="E12" t="n">
-        <v>182.3811182158519</v>
+        <v>299.5019372626111</v>
       </c>
       <c r="F12" t="n">
-        <v>168.8936319929518</v>
+        <v>152.9673792894961</v>
       </c>
       <c r="G12" t="n">
-        <v>30.43390707393397</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H12" t="n">
         <v>30.43390707393397</v>
@@ -5118,52 +5118,52 @@
         <v>30.43390707393397</v>
       </c>
       <c r="J12" t="n">
-        <v>30.43390707393397</v>
+        <v>54.79813383722124</v>
       </c>
       <c r="K12" t="n">
-        <v>198.6970944041447</v>
+        <v>223.061321167432</v>
       </c>
       <c r="L12" t="n">
-        <v>486.3521110234742</v>
+        <v>510.7163377867615</v>
       </c>
       <c r="M12" t="n">
-        <v>862.971711063407</v>
+        <v>887.3359378266945</v>
       </c>
       <c r="N12" t="n">
-        <v>1239.59131110334</v>
+        <v>1209.723818564187</v>
       </c>
       <c r="O12" t="n">
-        <v>1288.313760533884</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="P12" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q12" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R12" t="n">
-        <v>1437.357835893785</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S12" t="n">
-        <v>1402.023135948101</v>
+        <v>1353.3135820008</v>
       </c>
       <c r="T12" t="n">
-        <v>1333.976338311463</v>
+        <v>1285.266784364162</v>
       </c>
       <c r="U12" t="n">
-        <v>1238.81762735717</v>
+        <v>1190.108073409869</v>
       </c>
       <c r="V12" t="n">
-        <v>1103.929289631797</v>
+        <v>1088.003036928342</v>
       </c>
       <c r="W12" t="n">
-        <v>982.7390046538106</v>
+        <v>966.8127519503548</v>
       </c>
       <c r="X12" t="n">
-        <v>907.9345761984928</v>
+        <v>892.008323495037</v>
       </c>
       <c r="Y12" t="n">
-        <v>833.2213491837538</v>
+        <v>817.295096480298</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194.4516414858014</v>
+        <v>194.4516414858016</v>
       </c>
       <c r="C13" t="n">
-        <v>158.5625303081094</v>
+        <v>158.5625303081096</v>
       </c>
       <c r="D13" t="n">
-        <v>141.4929626459887</v>
+        <v>141.4929626459888</v>
       </c>
       <c r="E13" t="n">
-        <v>126.6269408138105</v>
+        <v>126.6269408138106</v>
       </c>
       <c r="F13" t="n">
-        <v>112.7840650661151</v>
+        <v>112.7840650661152</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946749</v>
+        <v>76.37056042946755</v>
       </c>
       <c r="H13" t="n">
-        <v>47.57254097184286</v>
+        <v>47.57254097184288</v>
       </c>
       <c r="I13" t="n">
         <v>30.43390707393397</v>
       </c>
       <c r="J13" t="n">
-        <v>84.1567902022049</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="K13" t="n">
-        <v>218.3899330701337</v>
+        <v>164.6670499418627</v>
       </c>
       <c r="L13" t="n">
-        <v>409.2216288383619</v>
+        <v>355.4987457100909</v>
       </c>
       <c r="M13" t="n">
-        <v>613.7275326835536</v>
+        <v>532.1693508240777</v>
       </c>
       <c r="N13" t="n">
-        <v>821.9059667580941</v>
+        <v>740.3477848986182</v>
       </c>
       <c r="O13" t="n">
-        <v>926.57241892697</v>
+        <v>926.5724189269707</v>
       </c>
       <c r="P13" t="n">
         <v>1081.21927357122</v>
@@ -5221,28 +5221,28 @@
         <v>1081.21927357122</v>
       </c>
       <c r="R13" t="n">
-        <v>1045.401516617307</v>
+        <v>1045.401516617308</v>
       </c>
       <c r="S13" t="n">
-        <v>956.1300939856964</v>
+        <v>956.1300939856967</v>
       </c>
       <c r="T13" t="n">
-        <v>859.9002076877709</v>
+        <v>859.9002076877713</v>
       </c>
       <c r="U13" t="n">
-        <v>703.7485358493614</v>
+        <v>703.7485358493617</v>
       </c>
       <c r="V13" t="n">
-        <v>582.1111193936894</v>
+        <v>582.1111193936897</v>
       </c>
       <c r="W13" t="n">
-        <v>425.7410211069437</v>
+        <v>425.7410211069441</v>
       </c>
       <c r="X13" t="n">
-        <v>330.7985419591413</v>
+        <v>330.7985419591416</v>
       </c>
       <c r="Y13" t="n">
-        <v>243.0530345658262</v>
+        <v>243.0530345658264</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1276.944184156985</v>
+        <v>746.264170269563</v>
       </c>
       <c r="C14" t="n">
-        <v>1276.944184156985</v>
+        <v>746.264170269563</v>
       </c>
       <c r="D14" t="n">
-        <v>1051.72555730045</v>
+        <v>521.0455434130274</v>
       </c>
       <c r="E14" t="n">
-        <v>798.9843764524201</v>
+        <v>521.0455434130274</v>
       </c>
       <c r="F14" t="n">
-        <v>521.0455434130273</v>
+        <v>521.0455434130274</v>
       </c>
       <c r="G14" t="n">
-        <v>235.1015857316204</v>
+        <v>235.1015857316203</v>
       </c>
       <c r="H14" t="n">
         <v>30.43390707393397</v>
@@ -5276,52 +5276,52 @@
         <v>30.43390707393397</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020946</v>
+        <v>60.7526010802095</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326554</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L14" t="n">
-        <v>485.380670655028</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241018</v>
+        <v>789.555297924102</v>
       </c>
       <c r="N14" t="n">
-        <v>1084.019791121358</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O14" t="n">
-        <v>1316.886624186928</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P14" t="n">
         <v>1477.958695736266</v>
       </c>
       <c r="Q14" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R14" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S14" t="n">
-        <v>1521.695353696698</v>
+        <v>1455.157131708066</v>
       </c>
       <c r="T14" t="n">
-        <v>1521.695353696698</v>
+        <v>1365.072875059106</v>
       </c>
       <c r="U14" t="n">
-        <v>1521.695353696698</v>
+        <v>1365.072875059106</v>
       </c>
       <c r="V14" t="n">
-        <v>1521.695353696698</v>
+        <v>1365.072875059106</v>
       </c>
       <c r="W14" t="n">
-        <v>1521.695353696698</v>
+        <v>1145.351291539207</v>
       </c>
       <c r="X14" t="n">
-        <v>1521.695353696698</v>
+        <v>1003.35643049516</v>
       </c>
       <c r="Y14" t="n">
-        <v>1521.695353696698</v>
+        <v>746.264170269563</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>531.9589404134711</v>
+        <v>516.0326877100149</v>
       </c>
       <c r="C15" t="n">
-        <v>357.505911132344</v>
+        <v>474.6267301791028</v>
       </c>
       <c r="D15" t="n">
-        <v>341.6185732213075</v>
+        <v>325.6923205178515</v>
       </c>
       <c r="E15" t="n">
-        <v>315.4281899660668</v>
+        <v>299.5019372626109</v>
       </c>
       <c r="F15" t="n">
-        <v>168.8936319929518</v>
+        <v>152.9673792894958</v>
       </c>
       <c r="G15" t="n">
-        <v>30.43390707393397</v>
+        <v>147.5547261206928</v>
       </c>
       <c r="H15" t="n">
-        <v>30.43390707393397</v>
+        <v>36.80385060460233</v>
       </c>
       <c r="I15" t="n">
         <v>30.43390707393397</v>
@@ -5358,49 +5358,49 @@
         <v>54.79813383722123</v>
       </c>
       <c r="K15" t="n">
-        <v>223.061321167432</v>
+        <v>65.51795678471922</v>
       </c>
       <c r="L15" t="n">
-        <v>510.7163377867614</v>
+        <v>353.1729734040487</v>
       </c>
       <c r="M15" t="n">
-        <v>833.1042185242541</v>
+        <v>729.7925734439816</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.723818564187</v>
+        <v>1106.412173483915</v>
       </c>
       <c r="O15" t="n">
-        <v>1521.695353696698</v>
+        <v>1418.383708616426</v>
       </c>
       <c r="P15" t="n">
-        <v>1521.695353696698</v>
+        <v>1418.383708616426</v>
       </c>
       <c r="Q15" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R15" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S15" t="n">
-        <v>1353.3135820008</v>
+        <v>1486.360653751015</v>
       </c>
       <c r="T15" t="n">
-        <v>1152.219712613947</v>
+        <v>1418.313856114377</v>
       </c>
       <c r="U15" t="n">
-        <v>1057.061001659654</v>
+        <v>1323.155145160084</v>
       </c>
       <c r="V15" t="n">
-        <v>837.8351461313682</v>
+        <v>1088.003036928342</v>
       </c>
       <c r="W15" t="n">
-        <v>716.6448611533814</v>
+        <v>966.8127519503548</v>
       </c>
       <c r="X15" t="n">
-        <v>641.8404326980634</v>
+        <v>758.961251744822</v>
       </c>
       <c r="Y15" t="n">
-        <v>567.1272056833243</v>
+        <v>684.248024730083</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.4516414858022</v>
+        <v>194.4516414858018</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081102</v>
+        <v>158.5625303081098</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459893</v>
+        <v>141.492962645989</v>
       </c>
       <c r="E16" t="n">
-        <v>126.626940813811</v>
+        <v>126.6269408138107</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661154</v>
+        <v>112.7840650661153</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946772</v>
+        <v>76.3705604294676</v>
       </c>
       <c r="H16" t="n">
-        <v>47.57254097184297</v>
+        <v>47.57254097184291</v>
       </c>
       <c r="I16" t="n">
         <v>30.43390707393397</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220479</v>
+        <v>84.15679020220486</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701335</v>
+        <v>218.3899330701336</v>
       </c>
       <c r="L16" t="n">
-        <v>327.6634469788878</v>
+        <v>409.2216288383618</v>
       </c>
       <c r="M16" t="n">
-        <v>532.1693508240794</v>
+        <v>598.816774481955</v>
       </c>
       <c r="N16" t="n">
-        <v>740.3477848986198</v>
+        <v>806.9952085564955</v>
       </c>
       <c r="O16" t="n">
-        <v>926.5724189269722</v>
+        <v>862.8204075624624</v>
       </c>
       <c r="P16" t="n">
-        <v>1081.219273571222</v>
+        <v>1017.467262206712</v>
       </c>
       <c r="Q16" t="n">
-        <v>1081.219273571222</v>
+        <v>1081.219273571221</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.401516617309</v>
+        <v>1045.401516617308</v>
       </c>
       <c r="S16" t="n">
-        <v>956.130093985698</v>
+        <v>956.1300939856972</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877724</v>
+        <v>859.9002076877716</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493627</v>
+        <v>703.748535849362</v>
       </c>
       <c r="V16" t="n">
-        <v>582.1111193936907</v>
+        <v>582.11111939369</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069449</v>
+        <v>425.7410211069443</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591424</v>
+        <v>330.7985419591419</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.0530345658271</v>
+        <v>243.0530345658267</v>
       </c>
     </row>
     <row r="17">
@@ -5489,61 +5489,61 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810894</v>
+        <v>872.4784887810889</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852414</v>
+        <v>743.2932336852408</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230546</v>
+        <v>624.8047969230539</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693741</v>
+        <v>478.7938061693733</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243293</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3713956372715</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H17" t="n">
         <v>30.43390707393397</v>
       </c>
       <c r="I17" t="n">
-        <v>30.43390707393393</v>
+        <v>30.43390707393416</v>
       </c>
       <c r="J17" t="n">
-        <v>60.75260108020942</v>
+        <v>60.75260108020964</v>
       </c>
       <c r="K17" t="n">
-        <v>226.9372683326554</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L17" t="n">
-        <v>485.3806706550279</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M17" t="n">
-        <v>789.5552979241018</v>
+        <v>789.555297924102</v>
       </c>
       <c r="N17" t="n">
-        <v>1084.019791121358</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O17" t="n">
-        <v>1316.886624186928</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P17" t="n">
         <v>1477.958695736266</v>
       </c>
       <c r="Q17" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R17" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S17" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T17" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U17" t="n">
         <v>1507.628652472969</v>
@@ -5552,7 +5552,7 @@
         <v>1416.343026973962</v>
       </c>
       <c r="W17" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548411</v>
       </c>
       <c r="X17" t="n">
         <v>1169.663137131895</v>
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>659.5933589948828</v>
+        <v>587.8163721757492</v>
       </c>
       <c r="C18" t="n">
-        <v>485.1403297137558</v>
+        <v>587.8163721757492</v>
       </c>
       <c r="D18" t="n">
-        <v>336.2059200525045</v>
+        <v>438.8819625144978</v>
       </c>
       <c r="E18" t="n">
-        <v>176.968465047049</v>
+        <v>279.6445075090423</v>
       </c>
       <c r="F18" t="n">
-        <v>30.43390707393397</v>
+        <v>279.6445075090423</v>
       </c>
       <c r="G18" t="n">
-        <v>30.43390707393397</v>
+        <v>141.1847825900245</v>
       </c>
       <c r="H18" t="n">
         <v>30.43390707393397</v>
@@ -5592,52 +5592,52 @@
         <v>30.43390707393397</v>
       </c>
       <c r="J18" t="n">
-        <v>40.49277633162708</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="K18" t="n">
-        <v>208.7559636618378</v>
+        <v>198.6970944041447</v>
       </c>
       <c r="L18" t="n">
-        <v>496.4109802811673</v>
+        <v>486.3521110234742</v>
       </c>
       <c r="M18" t="n">
-        <v>873.0305803211002</v>
+        <v>599.7226253614401</v>
       </c>
       <c r="N18" t="n">
-        <v>873.0305803211002</v>
+        <v>976.3422254013731</v>
       </c>
       <c r="O18" t="n">
-        <v>1185.002115453612</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P18" t="n">
-        <v>1418.383708616426</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q18" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R18" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S18" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="T18" t="n">
-        <v>1521.695353696698</v>
+        <v>1320.601484309846</v>
       </c>
       <c r="U18" t="n">
-        <v>1521.695353696698</v>
+        <v>1245.421174155761</v>
       </c>
       <c r="V18" t="n">
-        <v>1289.806351508106</v>
+        <v>1010.269065924019</v>
       </c>
       <c r="W18" t="n">
-        <v>1035.568994779905</v>
+        <v>756.0317091958173</v>
       </c>
       <c r="X18" t="n">
-        <v>1035.568994779905</v>
+        <v>756.0317091958173</v>
       </c>
       <c r="Y18" t="n">
-        <v>827.8086960149508</v>
+        <v>756.0317091958173</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="C19" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="D19" t="n">
-        <v>62.57270645799471</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="E19" t="n">
-        <v>62.57270645799471</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="F19" t="n">
-        <v>62.57270645799471</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="G19" t="n">
-        <v>62.57270645799471</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="H19" t="n">
-        <v>62.57270645799471</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="I19" t="n">
         <v>30.43390707393397</v>
@@ -5674,7 +5674,7 @@
         <v>30.43390707393397</v>
       </c>
       <c r="K19" t="n">
-        <v>34.26761491947711</v>
+        <v>34.26761491947712</v>
       </c>
       <c r="L19" t="n">
         <v>94.69987566531967</v>
@@ -5704,19 +5704,19 @@
         <v>326.6579621681114</v>
       </c>
       <c r="U19" t="n">
-        <v>277.2364804240506</v>
+        <v>94.98104162765428</v>
       </c>
       <c r="V19" t="n">
-        <v>262.3292540627274</v>
+        <v>80.073815266331</v>
       </c>
       <c r="W19" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="X19" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393397</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810894</v>
+        <v>872.478488781089</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852414</v>
+        <v>743.293233685241</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230546</v>
+        <v>624.8047969230543</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693741</v>
+        <v>478.7938061693737</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243302</v>
+        <v>307.5851632243298</v>
       </c>
       <c r="G20" t="n">
-        <v>128.3713956372715</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H20" t="n">
         <v>30.43390707393397</v>
@@ -5756,7 +5756,7 @@
         <v>226.9372683326554</v>
       </c>
       <c r="L20" t="n">
-        <v>485.3806706550279</v>
+        <v>485.380670655028</v>
       </c>
       <c r="M20" t="n">
         <v>789.5552979241018</v>
@@ -5780,7 +5780,7 @@
         <v>1521.695353696698</v>
       </c>
       <c r="T20" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="U20" t="n">
         <v>1507.628652472969</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>583.4730128482956</v>
+        <v>581.3215905349992</v>
       </c>
       <c r="C21" t="n">
-        <v>474.6656449715223</v>
+        <v>406.8685612538723</v>
       </c>
       <c r="D21" t="n">
-        <v>474.6656449715223</v>
+        <v>257.934151592621</v>
       </c>
       <c r="E21" t="n">
-        <v>315.4281899660668</v>
+        <v>257.934151592621</v>
       </c>
       <c r="F21" t="n">
-        <v>168.8936319929518</v>
+        <v>111.399593619506</v>
       </c>
       <c r="G21" t="n">
-        <v>30.43390707393397</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H21" t="n">
-        <v>30.43390707393397</v>
+        <v>111.399593619506</v>
       </c>
       <c r="I21" t="n">
         <v>30.43390707393397</v>
       </c>
       <c r="J21" t="n">
-        <v>54.79813383722123</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="K21" t="n">
-        <v>223.061321167432</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="L21" t="n">
-        <v>510.7163377867614</v>
+        <v>318.0889236932634</v>
       </c>
       <c r="M21" t="n">
-        <v>808.3825154136787</v>
+        <v>694.7085237331964</v>
       </c>
       <c r="N21" t="n">
-        <v>1185.002115453612</v>
+        <v>976.3422254013731</v>
       </c>
       <c r="O21" t="n">
-        <v>1185.002115453612</v>
+        <v>1288.313760533885</v>
       </c>
       <c r="P21" t="n">
-        <v>1418.383708616426</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q21" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R21" t="n">
-        <v>1437.357835893785</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S21" t="n">
-        <v>1437.357835893785</v>
+        <v>1353.3135820008</v>
       </c>
       <c r="T21" t="n">
-        <v>1437.357835893785</v>
+        <v>1353.3135820008</v>
       </c>
       <c r="U21" t="n">
-        <v>1209.152053189277</v>
+        <v>1353.3135820008</v>
       </c>
       <c r="V21" t="n">
-        <v>973.9999449575344</v>
+        <v>1353.3135820008</v>
       </c>
       <c r="W21" t="n">
-        <v>959.5398500738964</v>
+        <v>1099.076225272599</v>
       </c>
       <c r="X21" t="n">
-        <v>751.6883498683636</v>
+        <v>891.2247250670657</v>
       </c>
       <c r="Y21" t="n">
-        <v>751.6883498683636</v>
+        <v>683.4644263021119</v>
       </c>
     </row>
     <row r="22">
@@ -5911,7 +5911,7 @@
         <v>30.43390707393397</v>
       </c>
       <c r="K22" t="n">
-        <v>34.26761491947711</v>
+        <v>34.26761491947712</v>
       </c>
       <c r="L22" t="n">
         <v>94.69987566531967</v>
@@ -5941,16 +5941,16 @@
         <v>326.6579621681114</v>
       </c>
       <c r="U22" t="n">
-        <v>94.98104162765411</v>
+        <v>277.2364804240505</v>
       </c>
       <c r="V22" t="n">
-        <v>80.07381526633091</v>
+        <v>262.3292540627272</v>
       </c>
       <c r="W22" t="n">
-        <v>30.43390707393397</v>
+        <v>212.6893458703301</v>
       </c>
       <c r="X22" t="n">
-        <v>30.43390707393397</v>
+        <v>212.6893458703301</v>
       </c>
       <c r="Y22" t="n">
         <v>30.43390707393397</v>
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>872.4784887810896</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852415</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D23" t="n">
         <v>624.8047969230549</v>
       </c>
       <c r="E23" t="n">
-        <v>478.7938061693746</v>
+        <v>478.7938061693743</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243307</v>
+        <v>307.5851632243303</v>
       </c>
       <c r="G23" t="n">
-        <v>128.3713956372715</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H23" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="I23" t="n">
-        <v>30.43390707393461</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="J23" t="n">
-        <v>60.7526010802101</v>
+        <v>60.75260108020947</v>
       </c>
       <c r="K23" t="n">
-        <v>226.9372683326561</v>
+        <v>226.9372683326554</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550286</v>
+        <v>485.3806706550281</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241019</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
@@ -6026,7 +6026,7 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W23" t="n">
-        <v>1303.351633548412</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X23" t="n">
         <v>1169.663137131896</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>350.2869471465819</v>
+        <v>410.4660875395762</v>
       </c>
       <c r="C24" t="n">
-        <v>350.2869471465819</v>
+        <v>236.0130582584492</v>
       </c>
       <c r="D24" t="n">
-        <v>350.2869471465819</v>
+        <v>236.0130582584492</v>
       </c>
       <c r="E24" t="n">
-        <v>350.2869471465819</v>
+        <v>236.0130582584492</v>
       </c>
       <c r="F24" t="n">
-        <v>350.2869471465819</v>
+        <v>89.47850028533418</v>
       </c>
       <c r="G24" t="n">
-        <v>211.827222227564</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="H24" t="n">
-        <v>101.0763467114735</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="I24" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="J24" t="n">
-        <v>54.79813383722124</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="K24" t="n">
-        <v>223.061321167432</v>
+        <v>198.6970944041447</v>
       </c>
       <c r="L24" t="n">
-        <v>496.4109802811678</v>
+        <v>486.3521110234742</v>
       </c>
       <c r="M24" t="n">
-        <v>873.0305803211008</v>
+        <v>862.9717110634072</v>
       </c>
       <c r="N24" t="n">
-        <v>873.0305803211008</v>
+        <v>1239.59131110334</v>
       </c>
       <c r="O24" t="n">
-        <v>1185.002115453612</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="P24" t="n">
-        <v>1418.383708616426</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="Q24" t="n">
         <v>1521.695353696699</v>
       </c>
       <c r="R24" t="n">
-        <v>1437.357835893786</v>
+        <v>1437.357835893785</v>
       </c>
       <c r="S24" t="n">
-        <v>1268.976064197887</v>
+        <v>1268.976064197886</v>
       </c>
       <c r="T24" t="n">
-        <v>1067.882194811034</v>
+        <v>1268.976064197886</v>
       </c>
       <c r="U24" t="n">
-        <v>839.6764121065263</v>
+        <v>1040.770281493379</v>
       </c>
       <c r="V24" t="n">
-        <v>604.5243038747835</v>
+        <v>1040.770281493379</v>
       </c>
       <c r="W24" t="n">
-        <v>350.2869471465819</v>
+        <v>786.5329247651771</v>
       </c>
       <c r="X24" t="n">
-        <v>350.2869471465819</v>
+        <v>578.6814245596443</v>
       </c>
       <c r="Y24" t="n">
-        <v>350.2869471465819</v>
+        <v>578.6814245596443</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="C25" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="D25" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="E25" t="n">
-        <v>180.6196127220578</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="F25" t="n">
-        <v>180.6196127220578</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="G25" t="n">
-        <v>180.6196127220578</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="H25" t="n">
-        <v>180.6196127220578</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="I25" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="J25" t="n">
-        <v>30.43390707393398</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="K25" t="n">
-        <v>34.26761491947713</v>
+        <v>34.26761491947712</v>
       </c>
       <c r="L25" t="n">
         <v>94.69987566531968</v>
@@ -6178,19 +6178,19 @@
         <v>326.6579621681114</v>
       </c>
       <c r="U25" t="n">
-        <v>277.2364804240506</v>
+        <v>277.2364804240505</v>
       </c>
       <c r="V25" t="n">
-        <v>262.3292540627274</v>
+        <v>262.3292540627272</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6893458703304</v>
+        <v>212.6893458703301</v>
       </c>
       <c r="X25" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.6893458703304</v>
+        <v>30.43390707393397</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>1468.184568607514</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514023</v>
       </c>
       <c r="D26" t="n">
-        <v>1044.075666754195</v>
+        <v>1044.075666754194</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028722</v>
+        <v>809.8470710028714</v>
       </c>
       <c r="F26" t="n">
-        <v>550.420823060186</v>
+        <v>550.4208230601851</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754853</v>
+        <v>282.9894504754844</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450543</v>
+        <v>96.83435691450495</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J26" t="n">
         <v>234.1884011210062</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491196</v>
+        <v>548.9166880491197</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471597</v>
+        <v>955.9037100471598</v>
       </c>
       <c r="M26" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N26" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O26" t="n">
-        <v>2233.040522606062</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P26" t="n">
-        <v>2542.656213831067</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R26" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S26" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T26" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U26" t="n">
         <v>2544.422757287606</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790956</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367763</v>
       </c>
       <c r="X26" t="n">
         <v>1941.804426953605</v>
       </c>
       <c r="Y26" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824714</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>617.7798920756281</v>
+        <v>466.2202352287068</v>
       </c>
       <c r="C27" t="n">
-        <v>443.3268627945012</v>
+        <v>291.7672059475798</v>
       </c>
       <c r="D27" t="n">
-        <v>294.3924531332499</v>
+        <v>214.5635424445187</v>
       </c>
       <c r="E27" t="n">
-        <v>286.7146549747156</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="F27" t="n">
-        <v>140.1800970016006</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="G27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J27" t="n">
         <v>79.69031420235042</v>
@@ -6336,7 +6336,7 @@
         <v>1616.082962036792</v>
       </c>
       <c r="U27" t="n">
-        <v>1387.877179332285</v>
+        <v>1539.436836179206</v>
       </c>
       <c r="V27" t="n">
         <v>1304.284727947463</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.73818863237867</v>
+        <v>100.8889674209083</v>
       </c>
       <c r="C28" t="n">
-        <v>75.36166255139304</v>
+        <v>83.51244133992272</v>
       </c>
       <c r="D28" t="n">
-        <v>75.36166255139304</v>
+        <v>83.51244133992272</v>
       </c>
       <c r="E28" t="n">
-        <v>78.9356592069571</v>
+        <v>83.51244133992272</v>
       </c>
       <c r="F28" t="n">
-        <v>83.5124413399227</v>
+        <v>83.51244133992272</v>
       </c>
       <c r="G28" t="n">
-        <v>65.61152179998145</v>
+        <v>65.61152179998146</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I28" t="n">
-        <v>56.67269700900455</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J28" t="n">
-        <v>56.67269700900455</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="K28" t="n">
-        <v>60.5064048545477</v>
+        <v>59.15979528460631</v>
       </c>
       <c r="L28" t="n">
-        <v>201.9510329755224</v>
+        <v>268.1356757061164</v>
       </c>
       <c r="M28" t="n">
-        <v>276.0575017983284</v>
+        <v>490.78576420459</v>
       </c>
       <c r="N28" t="n">
-        <v>502.3801205261508</v>
+        <v>717.1083829324124</v>
       </c>
       <c r="O28" t="n">
-        <v>706.7489392077852</v>
+        <v>796.7959140141056</v>
       </c>
       <c r="P28" t="n">
-        <v>730.9963588296491</v>
+        <v>821.0433336359696</v>
       </c>
       <c r="Q28" t="n">
-        <v>812.8925548474399</v>
+        <v>821.0433336359696</v>
       </c>
       <c r="R28" t="n">
-        <v>795.5873829902337</v>
+        <v>803.7381617787634</v>
       </c>
       <c r="S28" t="n">
-        <v>724.8285454553292</v>
+        <v>732.9793242438589</v>
       </c>
       <c r="T28" t="n">
-        <v>647.11124425411</v>
+        <v>655.2620230426397</v>
       </c>
       <c r="U28" t="n">
-        <v>509.4721575124069</v>
+        <v>517.6229363009365</v>
       </c>
       <c r="V28" t="n">
-        <v>406.3473261534413</v>
+        <v>414.498104941971</v>
       </c>
       <c r="W28" t="n">
-        <v>268.489812963402</v>
+        <v>276.6405917519317</v>
       </c>
       <c r="X28" t="n">
-        <v>192.0599189123059</v>
+        <v>200.2106977008356</v>
       </c>
       <c r="Y28" t="n">
-        <v>122.8269966156971</v>
+        <v>130.9777754042267</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514025</v>
       </c>
       <c r="D29" t="n">
-        <v>1044.075666754194</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028713</v>
+        <v>809.8470710028726</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601851</v>
+        <v>550.4208230601863</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754844</v>
+        <v>282.9894504754857</v>
       </c>
       <c r="H29" t="n">
-        <v>96.8343569145045</v>
+        <v>96.83435691450494</v>
       </c>
       <c r="I29" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J29" t="n">
         <v>234.1884011210062</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491197</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471596</v>
+        <v>955.90371004716</v>
       </c>
       <c r="M29" t="n">
         <v>1408.621956991901</v>
@@ -6476,10 +6476,10 @@
         <v>1851.630069864825</v>
       </c>
       <c r="O29" t="n">
-        <v>2233.040522606062</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P29" t="n">
-        <v>2542.656213831067</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q29" t="n">
         <v>2734.936491467168</v>
@@ -6488,25 +6488,25 @@
         <v>2766.304371953158</v>
       </c>
       <c r="S29" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T29" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U29" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790956</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367763</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y29" t="n">
-        <v>1703.224751824714</v>
+        <v>1703.224751824715</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>533.4423742727145</v>
+        <v>646.3020052148512</v>
       </c>
       <c r="C30" t="n">
-        <v>358.9893449915875</v>
+        <v>471.8489759337242</v>
       </c>
       <c r="D30" t="n">
-        <v>210.0549353303362</v>
+        <v>471.8489759337242</v>
       </c>
       <c r="E30" t="n">
-        <v>202.377137171802</v>
+        <v>312.6115209282687</v>
       </c>
       <c r="F30" t="n">
-        <v>55.84257919868696</v>
+        <v>166.0769629551537</v>
       </c>
       <c r="G30" t="n">
-        <v>55.84257919868696</v>
+        <v>166.0769629551537</v>
       </c>
       <c r="H30" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I30" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J30" t="n">
         <v>79.69031420235042</v>
@@ -6567,7 +6567,7 @@
         <v>1901.22108531663</v>
       </c>
       <c r="S30" t="n">
-        <v>1884.398970467653</v>
+        <v>1732.839313620731</v>
       </c>
       <c r="T30" t="n">
         <v>1683.3051010808</v>
@@ -6576,16 +6576,16 @@
         <v>1455.099318376292</v>
       </c>
       <c r="V30" t="n">
-        <v>1371.506866991471</v>
+        <v>1219.94721014455</v>
       </c>
       <c r="W30" t="n">
-        <v>1117.269510263269</v>
+        <v>1078.569484358485</v>
       </c>
       <c r="X30" t="n">
-        <v>909.4180100577364</v>
+        <v>870.7179841529518</v>
       </c>
       <c r="Y30" t="n">
-        <v>701.6577112927826</v>
+        <v>814.5173422349192</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>91.32388724474136</v>
+        <v>97.31497076534417</v>
       </c>
       <c r="C31" t="n">
-        <v>73.94736116375573</v>
+        <v>79.93844468435857</v>
       </c>
       <c r="D31" t="n">
-        <v>75.36166255139304</v>
+        <v>79.93844468435857</v>
       </c>
       <c r="E31" t="n">
-        <v>78.9356592069571</v>
+        <v>83.51244133992266</v>
       </c>
       <c r="F31" t="n">
-        <v>83.5124413399227</v>
+        <v>83.51244133992266</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998145</v>
+        <v>65.61152179998143</v>
       </c>
       <c r="H31" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I31" t="n">
-        <v>55.32608743906316</v>
+        <v>56.67269700900459</v>
       </c>
       <c r="J31" t="n">
-        <v>127.193155220616</v>
+        <v>128.5397647905574</v>
       </c>
       <c r="K31" t="n">
-        <v>279.5704827418267</v>
+        <v>280.9170923117681</v>
       </c>
       <c r="L31" t="n">
-        <v>340.0027434876692</v>
+        <v>489.8929727332783</v>
       </c>
       <c r="M31" t="n">
-        <v>414.1092123104752</v>
+        <v>577.7215232826287</v>
       </c>
       <c r="N31" t="n">
-        <v>500.9658191385134</v>
+        <v>655.5005223347836</v>
       </c>
       <c r="O31" t="n">
-        <v>705.3346378201478</v>
+        <v>711.3257213407504</v>
       </c>
       <c r="P31" t="n">
-        <v>729.5820574420118</v>
+        <v>735.5731409626144</v>
       </c>
       <c r="Q31" t="n">
-        <v>811.4782534598025</v>
+        <v>817.4693369804052</v>
       </c>
       <c r="R31" t="n">
-        <v>794.1730816025963</v>
+        <v>800.1641651231989</v>
       </c>
       <c r="S31" t="n">
-        <v>723.4142440676918</v>
+        <v>729.4053275882944</v>
       </c>
       <c r="T31" t="n">
-        <v>645.6969428664727</v>
+        <v>651.6880263870754</v>
       </c>
       <c r="U31" t="n">
-        <v>508.0578561247695</v>
+        <v>514.0489396453722</v>
       </c>
       <c r="V31" t="n">
-        <v>404.9330247658039</v>
+        <v>410.9241082864067</v>
       </c>
       <c r="W31" t="n">
-        <v>267.0755115757646</v>
+        <v>273.0665950963674</v>
       </c>
       <c r="X31" t="n">
-        <v>190.6456175246686</v>
+        <v>196.6367010452714</v>
       </c>
       <c r="Y31" t="n">
-        <v>121.4126952280598</v>
+        <v>127.4037787486626</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607516</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514025</v>
       </c>
       <c r="D32" t="n">
-        <v>1044.075666754195</v>
+        <v>1044.075666754196</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028716</v>
+        <v>809.8470710028728</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601854</v>
+        <v>550.4208230601864</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754848</v>
+        <v>282.9894504754852</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450487</v>
+        <v>96.83435691450505</v>
       </c>
       <c r="I32" t="n">
         <v>55.32608743906317</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210063</v>
+        <v>234.1884011210061</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491198</v>
+        <v>548.9166880491196</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471601</v>
+        <v>955.9037100471596</v>
       </c>
       <c r="M32" t="n">
-        <v>1408.621956991901</v>
+        <v>1408.621956991902</v>
       </c>
       <c r="N32" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864827</v>
       </c>
       <c r="O32" t="n">
-        <v>2233.040522606063</v>
+        <v>2233.040522606064</v>
       </c>
       <c r="P32" t="n">
         <v>2542.656213831068</v>
       </c>
       <c r="Q32" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R32" t="n">
         <v>2766.304371953158</v>
@@ -6728,22 +6728,22 @@
         <v>2718.278735061233</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287608</v>
       </c>
       <c r="V32" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W32" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953607</v>
       </c>
       <c r="Y32" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824716</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>719.1928587063261</v>
+        <v>769.3395489225493</v>
       </c>
       <c r="C33" t="n">
-        <v>544.7398294251991</v>
+        <v>594.8865196414223</v>
       </c>
       <c r="D33" t="n">
-        <v>544.7398294251991</v>
+        <v>445.952109980171</v>
       </c>
       <c r="E33" t="n">
-        <v>385.5023744197435</v>
+        <v>286.7146549747155</v>
       </c>
       <c r="F33" t="n">
-        <v>385.5023744197435</v>
+        <v>140.1800970016005</v>
       </c>
       <c r="G33" t="n">
-        <v>247.0426495007257</v>
+        <v>140.1800970016005</v>
       </c>
       <c r="H33" t="n">
-        <v>136.2917739846352</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I33" t="n">
         <v>55.32608743906317</v>
@@ -6801,28 +6801,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1901.22108531663</v>
+        <v>1985.558603119544</v>
       </c>
       <c r="S33" t="n">
-        <v>1732.839313620731</v>
+        <v>1968.736488270566</v>
       </c>
       <c r="T33" t="n">
-        <v>1531.745444233879</v>
+        <v>1919.202275730635</v>
       </c>
       <c r="U33" t="n">
-        <v>1455.099318376292</v>
+        <v>1690.996493026127</v>
       </c>
       <c r="V33" t="n">
-        <v>1219.947210144549</v>
+        <v>1455.844384794384</v>
       </c>
       <c r="W33" t="n">
-        <v>1117.269510263269</v>
+        <v>1201.607028066183</v>
       </c>
       <c r="X33" t="n">
-        <v>943.6088376444267</v>
+        <v>993.7555278606501</v>
       </c>
       <c r="Y33" t="n">
-        <v>887.4081957263941</v>
+        <v>937.5548859426174</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.8889674209083</v>
+        <v>100.8889674209086</v>
       </c>
       <c r="C34" t="n">
-        <v>83.51244133992266</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="D34" t="n">
-        <v>83.51244133992266</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992266</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992266</v>
+        <v>83.51244133992289</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998143</v>
+        <v>65.61152179998155</v>
       </c>
       <c r="H34" t="n">
         <v>55.32608743906317</v>
@@ -6856,52 +6856,52 @@
         <v>55.32608743906317</v>
       </c>
       <c r="J34" t="n">
-        <v>127.193155220616</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="K34" t="n">
-        <v>131.0268630661591</v>
+        <v>59.15979528460631</v>
       </c>
       <c r="L34" t="n">
-        <v>340.0027434876692</v>
+        <v>268.1356757061163</v>
       </c>
       <c r="M34" t="n">
-        <v>414.1092123104753</v>
+        <v>342.2421445289224</v>
       </c>
       <c r="N34" t="n">
-        <v>592.4270953324708</v>
+        <v>420.0211435810772</v>
       </c>
       <c r="O34" t="n">
-        <v>648.2522943384377</v>
+        <v>624.3899622627116</v>
       </c>
       <c r="P34" t="n">
-        <v>821.0433336359692</v>
+        <v>797.181001560243</v>
       </c>
       <c r="Q34" t="n">
-        <v>821.0433336359692</v>
+        <v>821.0433336359706</v>
       </c>
       <c r="R34" t="n">
-        <v>803.738161778763</v>
+        <v>803.7381617787643</v>
       </c>
       <c r="S34" t="n">
-        <v>732.9793242438585</v>
+        <v>732.9793242438597</v>
       </c>
       <c r="T34" t="n">
-        <v>655.2620230426395</v>
+        <v>655.2620230426405</v>
       </c>
       <c r="U34" t="n">
-        <v>517.6229363009363</v>
+        <v>517.6229363009372</v>
       </c>
       <c r="V34" t="n">
-        <v>414.4981049419707</v>
+        <v>414.4981049419715</v>
       </c>
       <c r="W34" t="n">
-        <v>276.6405917519314</v>
+        <v>276.6405917519321</v>
       </c>
       <c r="X34" t="n">
-        <v>200.2106977008354</v>
+        <v>200.210697700836</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.9777754042266</v>
+        <v>130.9777754042271</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.478488781089</v>
+        <v>872.4784887810888</v>
       </c>
       <c r="C35" t="n">
-        <v>743.2932336852413</v>
+        <v>743.2932336852408</v>
       </c>
       <c r="D35" t="n">
-        <v>624.8047969230544</v>
+        <v>624.8047969230539</v>
       </c>
       <c r="E35" t="n">
-        <v>478.7938061693737</v>
+        <v>478.7938061693733</v>
       </c>
       <c r="F35" t="n">
-        <v>307.5851632243298</v>
+        <v>307.5851632243293</v>
       </c>
       <c r="G35" t="n">
-        <v>128.3713956372715</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H35" t="n">
         <v>30.43390707393397</v>
@@ -6935,31 +6935,31 @@
         <v>30.43390707393397</v>
       </c>
       <c r="J35" t="n">
-        <v>60.75260108020946</v>
+        <v>60.75260108020944</v>
       </c>
       <c r="K35" t="n">
         <v>226.9372683326554</v>
       </c>
       <c r="L35" t="n">
-        <v>485.380670655028</v>
+        <v>485.3806706550279</v>
       </c>
       <c r="M35" t="n">
         <v>789.5552979241018</v>
       </c>
       <c r="N35" t="n">
-        <v>1084.019791121358</v>
+        <v>1084.019791121359</v>
       </c>
       <c r="O35" t="n">
-        <v>1316.886624186928</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P35" t="n">
         <v>1477.958695736266</v>
       </c>
       <c r="Q35" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="R35" t="n">
-        <v>1521.695353696698</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S35" t="n">
         <v>1521.695353696699</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>445.0900779060885</v>
+        <v>427.8668341308153</v>
       </c>
       <c r="C36" t="n">
-        <v>270.6370486249615</v>
+        <v>253.4138048496883</v>
       </c>
       <c r="D36" t="n">
-        <v>270.6370486249615</v>
+        <v>253.4138048496883</v>
       </c>
       <c r="E36" t="n">
-        <v>111.399593619506</v>
+        <v>253.4138048496883</v>
       </c>
       <c r="F36" t="n">
-        <v>111.399593619506</v>
+        <v>106.8792468765732</v>
       </c>
       <c r="G36" t="n">
-        <v>111.399593619506</v>
+        <v>106.8792468765732</v>
       </c>
       <c r="H36" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="I36" t="n">
         <v>30.43390707393397</v>
@@ -7017,16 +7017,16 @@
         <v>54.79813383722123</v>
       </c>
       <c r="K36" t="n">
-        <v>119.7913802412345</v>
+        <v>223.061321167432</v>
       </c>
       <c r="L36" t="n">
-        <v>119.7913802412345</v>
+        <v>510.7163377867614</v>
       </c>
       <c r="M36" t="n">
-        <v>496.4109802811674</v>
+        <v>808.3825154136789</v>
       </c>
       <c r="N36" t="n">
-        <v>873.0305803211004</v>
+        <v>1185.002115453612</v>
       </c>
       <c r="O36" t="n">
         <v>1185.002115453612</v>
@@ -7038,28 +7038,28 @@
         <v>1521.695353696699</v>
       </c>
       <c r="R36" t="n">
-        <v>1504.693923951251</v>
+        <v>1521.695353696699</v>
       </c>
       <c r="S36" t="n">
-        <v>1504.693923951251</v>
+        <v>1353.3135820008</v>
       </c>
       <c r="T36" t="n">
-        <v>1303.600054564399</v>
+        <v>1353.3135820008</v>
       </c>
       <c r="U36" t="n">
-        <v>1075.394271859891</v>
+        <v>1125.107799296292</v>
       </c>
       <c r="V36" t="n">
-        <v>1075.394271859891</v>
+        <v>889.9556910645497</v>
       </c>
       <c r="W36" t="n">
-        <v>821.1569151316894</v>
+        <v>635.7183343363481</v>
       </c>
       <c r="X36" t="n">
-        <v>613.3054149261566</v>
+        <v>427.8668341308153</v>
       </c>
       <c r="Y36" t="n">
-        <v>613.3054149261566</v>
+        <v>427.8668341308153</v>
       </c>
     </row>
     <row r="37">
@@ -7129,13 +7129,13 @@
         <v>277.2364804240505</v>
       </c>
       <c r="V37" t="n">
-        <v>262.3292540627273</v>
+        <v>80.073815266331</v>
       </c>
       <c r="W37" t="n">
-        <v>212.6893458703303</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="X37" t="n">
-        <v>212.6893458703303</v>
+        <v>30.43390707393397</v>
       </c>
       <c r="Y37" t="n">
         <v>30.43390707393397</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.478488781089</v>
+        <v>872.4784887810905</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852409</v>
+        <v>743.2932336852424</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230543</v>
+        <v>624.8047969230555</v>
       </c>
       <c r="E38" t="n">
-        <v>478.793806169374</v>
+        <v>478.7938061693749</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243303</v>
+        <v>307.5851632243309</v>
       </c>
       <c r="G38" t="n">
-        <v>128.3713956372715</v>
+        <v>128.3713956372716</v>
       </c>
       <c r="H38" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I38" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J38" t="n">
-        <v>60.7526010802095</v>
+        <v>60.75260108020949</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326555</v>
+        <v>226.9372683326554</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550282</v>
+        <v>485.380670655028</v>
       </c>
       <c r="M38" t="n">
-        <v>789.555297924102</v>
+        <v>789.5552979241018</v>
       </c>
       <c r="N38" t="n">
-        <v>1084.019791121359</v>
+        <v>1084.019791121358</v>
       </c>
       <c r="O38" t="n">
-        <v>1316.886624186929</v>
+        <v>1316.886624186928</v>
       </c>
       <c r="P38" t="n">
         <v>1477.958695736266</v>
       </c>
       <c r="Q38" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.695353696698</v>
       </c>
       <c r="R38" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S38" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="T38" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="U38" t="n">
-        <v>1507.628652472969</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V38" t="n">
-        <v>1416.343026973962</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W38" t="n">
-        <v>1303.351633548411</v>
+        <v>1303.351633548413</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131895</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y38" t="n">
-        <v>1019.301067000647</v>
+        <v>1019.301067000649</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>851.3099210565452</v>
+        <v>432.387180873748</v>
       </c>
       <c r="C39" t="n">
-        <v>676.8568917754183</v>
+        <v>257.934151592621</v>
       </c>
       <c r="D39" t="n">
-        <v>527.922482114167</v>
+        <v>257.934151592621</v>
       </c>
       <c r="E39" t="n">
-        <v>368.6850271087115</v>
+        <v>257.934151592621</v>
       </c>
       <c r="F39" t="n">
-        <v>222.1504691355965</v>
+        <v>111.399593619506</v>
       </c>
       <c r="G39" t="n">
-        <v>222.1504691355965</v>
+        <v>111.399593619506</v>
       </c>
       <c r="H39" t="n">
         <v>111.399593619506</v>
       </c>
       <c r="I39" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J39" t="n">
-        <v>54.79813383722123</v>
+        <v>54.79813383722126</v>
       </c>
       <c r="K39" t="n">
         <v>223.061321167432</v>
       </c>
       <c r="L39" t="n">
-        <v>223.061321167432</v>
+        <v>510.7163377867614</v>
       </c>
       <c r="M39" t="n">
-        <v>599.6809212073649</v>
+        <v>887.3359378266947</v>
       </c>
       <c r="N39" t="n">
-        <v>976.3005212472979</v>
+        <v>976.3422254013744</v>
       </c>
       <c r="O39" t="n">
-        <v>1288.272056379809</v>
+        <v>1288.313760533886</v>
       </c>
       <c r="P39" t="n">
-        <v>1418.383708616426</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="Q39" t="n">
-        <v>1521.695353696699</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="R39" t="n">
-        <v>1521.695353696699</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="S39" t="n">
-        <v>1353.3135820008</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T39" t="n">
-        <v>1353.3135820008</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U39" t="n">
-        <v>1340.69938601649</v>
+        <v>862.4590747278728</v>
       </c>
       <c r="V39" t="n">
-        <v>1105.547277784747</v>
+        <v>862.4590747278728</v>
       </c>
       <c r="W39" t="n">
-        <v>851.3099210565452</v>
+        <v>847.9989798442348</v>
       </c>
       <c r="X39" t="n">
-        <v>851.3099210565452</v>
+        <v>640.147479638702</v>
       </c>
       <c r="Y39" t="n">
-        <v>851.3099210565452</v>
+        <v>432.387180873748</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.5505464862697</v>
+        <v>31.04088104009043</v>
       </c>
       <c r="C40" t="n">
-        <v>180.5505464862697</v>
+        <v>31.04088104009043</v>
       </c>
       <c r="D40" t="n">
-        <v>30.43390707393397</v>
+        <v>31.04088104009043</v>
       </c>
       <c r="E40" t="n">
-        <v>30.43390707393397</v>
+        <v>31.04088104009043</v>
       </c>
       <c r="F40" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G40" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H40" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I40" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J40" t="n">
-        <v>30.43390707393397</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947711</v>
+        <v>34.26761491947715</v>
       </c>
       <c r="L40" t="n">
-        <v>94.69987566531967</v>
+        <v>94.69987566531969</v>
       </c>
       <c r="M40" t="n">
         <v>168.8063444881257</v>
@@ -7366,16 +7366,16 @@
         <v>277.2364804240505</v>
       </c>
       <c r="V40" t="n">
-        <v>262.3292540627273</v>
+        <v>262.3292540627272</v>
       </c>
       <c r="W40" t="n">
-        <v>212.6893458703303</v>
+        <v>212.6893458703301</v>
       </c>
       <c r="X40" t="n">
-        <v>212.6893458703303</v>
+        <v>212.6893458703301</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.5505464862697</v>
+        <v>212.6893458703301</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829038</v>
+        <v>976.4306445829039</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416671</v>
+        <v>830.5994560416673</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340915</v>
+        <v>695.4650858340918</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350225</v>
+        <v>532.8081616350227</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445899</v>
+        <v>344.9535852445902</v>
       </c>
       <c r="G41" t="n">
-        <v>149.0938842121431</v>
+        <v>149.093884212143</v>
       </c>
       <c r="H41" t="n">
         <v>34.51046220341689</v>
@@ -7409,37 +7409,37 @@
         <v>34.51046220341689</v>
       </c>
       <c r="J41" t="n">
-        <v>264.5803575543555</v>
+        <v>64.82915620969237</v>
       </c>
       <c r="K41" t="n">
-        <v>430.7650248068014</v>
+        <v>231.0138234621383</v>
       </c>
       <c r="L41" t="n">
-        <v>689.208427129174</v>
+        <v>489.4572257845109</v>
       </c>
       <c r="M41" t="n">
-        <v>993.3830543982479</v>
+        <v>793.6318530535848</v>
       </c>
       <c r="N41" t="n">
-        <v>1287.847547595504</v>
+        <v>1088.096346250841</v>
       </c>
       <c r="O41" t="n">
-        <v>1520.714380661075</v>
+        <v>1320.963179316411</v>
       </c>
       <c r="P41" t="n">
-        <v>1681.786452210412</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q41" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R41" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S41" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T41" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="U41" t="n">
         <v>1694.810475501727</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>478.7422001010053</v>
+        <v>671.3307537904252</v>
       </c>
       <c r="C42" t="n">
-        <v>478.7422001010053</v>
+        <v>496.8777245092982</v>
       </c>
       <c r="D42" t="n">
-        <v>478.7422001010053</v>
+        <v>347.943314848047</v>
       </c>
       <c r="E42" t="n">
-        <v>319.5047450955498</v>
+        <v>188.7058598425915</v>
       </c>
       <c r="F42" t="n">
-        <v>172.9701871224348</v>
+        <v>188.7058598425915</v>
       </c>
       <c r="G42" t="n">
-        <v>34.51046220341689</v>
+        <v>188.7058598425915</v>
       </c>
       <c r="H42" t="n">
-        <v>34.51046220341689</v>
+        <v>115.4761487489889</v>
       </c>
       <c r="I42" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="J42" t="n">
-        <v>58.87468896670416</v>
+        <v>58.87468896670414</v>
       </c>
       <c r="K42" t="n">
-        <v>58.87468896670416</v>
+        <v>227.1378762969149</v>
       </c>
       <c r="L42" t="n">
-        <v>346.5297055860336</v>
+        <v>514.7928929162443</v>
       </c>
       <c r="M42" t="n">
-        <v>734.1887638104961</v>
+        <v>902.4519511407068</v>
       </c>
       <c r="N42" t="n">
         <v>1076.858336795246</v>
       </c>
       <c r="O42" t="n">
-        <v>1388.829871927758</v>
+        <v>1388.829871927757</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.211465090572</v>
+        <v>1622.211465090571</v>
       </c>
       <c r="Q42" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R42" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S42" t="n">
-        <v>1605.191615917264</v>
+        <v>1557.141338474945</v>
       </c>
       <c r="T42" t="n">
-        <v>1404.097746530411</v>
+        <v>1557.141338474945</v>
       </c>
       <c r="U42" t="n">
-        <v>1175.891963825904</v>
+        <v>1328.935555770438</v>
       </c>
       <c r="V42" t="n">
-        <v>940.7398555941609</v>
+        <v>1093.783447538695</v>
       </c>
       <c r="W42" t="n">
-        <v>686.5024988659592</v>
+        <v>839.5460908104933</v>
       </c>
       <c r="X42" t="n">
-        <v>686.5024988659592</v>
+        <v>839.5460908104933</v>
       </c>
       <c r="Y42" t="n">
-        <v>478.7422001010053</v>
+        <v>839.5460908104933</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.8242485158396</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="C43" t="n">
-        <v>155.8242485158396</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="D43" t="n">
-        <v>155.8242485158396</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="E43" t="n">
-        <v>155.8242485158396</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="F43" t="n">
-        <v>155.8242485158396</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="G43" t="n">
         <v>34.51046220341689</v>
@@ -7570,7 +7570,7 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K43" t="n">
-        <v>38.34417004896004</v>
+        <v>38.34417004896003</v>
       </c>
       <c r="L43" t="n">
         <v>98.77643079480259</v>
@@ -7597,22 +7597,22 @@
         <v>330.7345172975943</v>
       </c>
       <c r="T43" t="n">
-        <v>324.5888876486289</v>
+        <v>324.5888876486291</v>
       </c>
       <c r="U43" t="n">
-        <v>258.5214724591794</v>
+        <v>258.5214724591796</v>
       </c>
       <c r="V43" t="n">
-        <v>226.9683126524676</v>
+        <v>105.6545263400447</v>
       </c>
       <c r="W43" t="n">
-        <v>160.6824710146819</v>
+        <v>39.36868470225914</v>
       </c>
       <c r="X43" t="n">
-        <v>155.8242485158396</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.8242485158396</v>
+        <v>34.51046220341689</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829042</v>
+        <v>976.4306445829028</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416675</v>
+        <v>830.5994560416661</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340922</v>
+        <v>695.4650858340908</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350231</v>
+        <v>532.8081616350217</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445907</v>
+        <v>344.9535852445892</v>
       </c>
       <c r="G44" t="n">
         <v>149.093884212143</v>
       </c>
       <c r="H44" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341687</v>
       </c>
       <c r="I44" t="n">
-        <v>34.51046220341689</v>
+        <v>63.97560257890033</v>
       </c>
       <c r="J44" t="n">
-        <v>64.82915620969237</v>
+        <v>94.29429658517581</v>
       </c>
       <c r="K44" t="n">
-        <v>231.0138234621383</v>
+        <v>260.4789638376218</v>
       </c>
       <c r="L44" t="n">
-        <v>489.4572257845109</v>
+        <v>518.9223661599943</v>
       </c>
       <c r="M44" t="n">
-        <v>793.6318530535848</v>
+        <v>891.8677786238932</v>
       </c>
       <c r="N44" t="n">
-        <v>1088.096346250841</v>
+        <v>1186.33227182115</v>
       </c>
       <c r="O44" t="n">
-        <v>1320.963179316411</v>
+        <v>1419.19910488672</v>
       </c>
       <c r="P44" t="n">
-        <v>1482.035250865749</v>
+        <v>1580.271176436057</v>
       </c>
       <c r="Q44" t="n">
-        <v>1725.523110170845</v>
+        <v>1624.00783439649</v>
       </c>
       <c r="R44" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S44" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T44" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501727</v>
+        <v>1694.810475501725</v>
       </c>
       <c r="V44" t="n">
-        <v>1586.878916557331</v>
+        <v>1586.87891655733</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.241589686392</v>
+        <v>1457.241589686391</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824488</v>
+        <v>1306.907159824486</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.899156247851</v>
+        <v>1139.89915624785</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>549.404841302373</v>
+        <v>615.1833346350006</v>
       </c>
       <c r="C45" t="n">
-        <v>549.404841302373</v>
+        <v>440.7303053538736</v>
       </c>
       <c r="D45" t="n">
-        <v>400.4704316411218</v>
+        <v>291.7958956926224</v>
       </c>
       <c r="E45" t="n">
-        <v>400.4704316411218</v>
+        <v>291.7958956926224</v>
       </c>
       <c r="F45" t="n">
-        <v>253.9358736680068</v>
+        <v>145.2613377195074</v>
       </c>
       <c r="G45" t="n">
-        <v>115.4761487489889</v>
+        <v>145.2613377195074</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4761487489889</v>
+        <v>34.51046220341687</v>
       </c>
       <c r="I45" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341687</v>
       </c>
       <c r="J45" t="n">
-        <v>58.87468896670416</v>
+        <v>58.87468896670413</v>
       </c>
       <c r="K45" t="n">
-        <v>221.299601746676</v>
+        <v>227.1378762969149</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9546183660055</v>
+        <v>508.9546183660046</v>
       </c>
       <c r="M45" t="n">
-        <v>896.613676590468</v>
+        <v>896.6136765904671</v>
       </c>
       <c r="N45" t="n">
         <v>1310.23992995806</v>
       </c>
       <c r="O45" t="n">
-        <v>1622.211465090572</v>
+        <v>1622.211465090571</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.211465090572</v>
+        <v>1622.211465090571</v>
       </c>
       <c r="Q45" t="n">
-        <v>1725.523110170845</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170845</v>
+        <v>1686.974395188562</v>
       </c>
       <c r="S45" t="n">
-        <v>1557.141338474946</v>
+        <v>1518.592623492663</v>
       </c>
       <c r="T45" t="n">
-        <v>1356.047469088093</v>
+        <v>1317.49875410581</v>
       </c>
       <c r="U45" t="n">
-        <v>1350.97301478276</v>
+        <v>1089.292971401303</v>
       </c>
       <c r="V45" t="n">
-        <v>1115.820906551018</v>
+        <v>1077.272191568735</v>
       </c>
       <c r="W45" t="n">
-        <v>965.0166402728598</v>
+        <v>823.0348348405334</v>
       </c>
       <c r="X45" t="n">
-        <v>757.165140067327</v>
+        <v>615.1833346350006</v>
       </c>
       <c r="Y45" t="n">
-        <v>549.404841302373</v>
+        <v>615.1833346350006</v>
       </c>
     </row>
     <row r="46">
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341687</v>
       </c>
       <c r="C46" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341687</v>
       </c>
       <c r="D46" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341687</v>
       </c>
       <c r="E46" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341687</v>
       </c>
       <c r="F46" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341687</v>
       </c>
       <c r="G46" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341687</v>
       </c>
       <c r="H46" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341687</v>
       </c>
       <c r="I46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341687</v>
       </c>
       <c r="J46" t="n">
-        <v>34.51046220341689</v>
+        <v>34.51046220341687</v>
       </c>
       <c r="K46" t="n">
-        <v>38.34417004896004</v>
+        <v>38.34417004896002</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480259</v>
+        <v>98.77643079480256</v>
       </c>
       <c r="M46" t="n">
         <v>172.8828996176086</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697635</v>
+        <v>250.6618986697634</v>
       </c>
       <c r="O46" t="n">
-        <v>306.4870976757304</v>
+        <v>306.4870976757303</v>
       </c>
       <c r="P46" t="n">
         <v>330.7345172975943</v>
@@ -7834,7 +7834,7 @@
         <v>330.7345172975943</v>
       </c>
       <c r="T46" t="n">
-        <v>324.5888876486291</v>
+        <v>324.588887648629</v>
       </c>
       <c r="U46" t="n">
         <v>258.5214724591796</v>
@@ -7843,13 +7843,13 @@
         <v>226.9683126524678</v>
       </c>
       <c r="W46" t="n">
-        <v>160.6824710146823</v>
+        <v>160.6824710146822</v>
       </c>
       <c r="X46" t="n">
         <v>155.82424851584</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.82424851584</v>
+        <v>34.51046220341687</v>
       </c>
     </row>
   </sheetData>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,16 +8775,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5540958868386</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N12" t="n">
-        <v>441.9619164368268</v>
+        <v>387.1824019899175</v>
       </c>
       <c r="O12" t="n">
-        <v>127.9541519010052</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719557</v>
       </c>
       <c r="Q12" t="n">
         <v>105.7220906850686</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>105.3305255148889</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>399.7745814399293</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N15" t="n">
-        <v>441.9619164368267</v>
+        <v>441.9619164368268</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>82.7237856471956</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>111.6411792741521</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5540958868386</v>
+        <v>188.6459285111145</v>
       </c>
       <c r="N18" t="n">
-        <v>61.53807801265211</v>
+        <v>441.9619164368268</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751724</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>374.8031641565198</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N21" t="n">
-        <v>441.9619164368267</v>
+        <v>346.0165645461639</v>
       </c>
       <c r="O21" t="n">
-        <v>78.73955651661694</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>356.3904892372029</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868388</v>
+        <v>454.5540958868387</v>
       </c>
       <c r="N24" t="n">
-        <v>61.53807801265211</v>
+        <v>441.9619164368268</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>363.6931348937468</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>82.72378564719558</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>160.1521653699549</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>80.27972245565164</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5540958868387</v>
+        <v>374.8031641565201</v>
       </c>
       <c r="N36" t="n">
         <v>441.9619164368268</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>78.73955651661694</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>80.27972245565164</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5540958868387</v>
+        <v>454.554095886839</v>
       </c>
       <c r="N39" t="n">
-        <v>441.9619164368268</v>
+        <v>151.4434189971771</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>214.1496969973135</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>105.7220906850686</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>94.50242152751724</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>407.6689598154301</v>
+        <v>237.7061443303683</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>258.5679899921353</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>364.943098283015</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -23264,13 +23264,13 @@
         <v>222.9664405879702</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.213769039549</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>146.1093482662245</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0845181045929</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>73.78883410729672</v>
+        <v>119.5889224048974</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374221</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>217.5243676847002</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>238.0144996457562</v>
+        <v>238.0144996457563</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.5213376233408</v>
       </c>
     </row>
     <row r="12">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.713582786451667</v>
+        <v>251.0172406307678</v>
       </c>
       <c r="C14" t="n">
-        <v>233.5562907382949</v>
+        <v>233.5562907382948</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.213769039549</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.1594447089987</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642677</v>
+        <v>59.4206460264267</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874608</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.18341408247065</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048975</v>
+        <v>119.5889224048974</v>
       </c>
       <c r="V14" t="n">
         <v>196.0356574374222</v>
       </c>
       <c r="W14" t="n">
-        <v>217.5243676847003</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457564</v>
+        <v>97.4395872121496</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.5213376233409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -26320,28 +26320,28 @@
         <v>143373.3592754817</v>
       </c>
       <c r="E2" t="n">
-        <v>123032.0381205445</v>
+        <v>123032.0381205443</v>
       </c>
       <c r="F2" t="n">
-        <v>123032.0381205444</v>
+        <v>123032.0381205443</v>
       </c>
       <c r="G2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="H2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="I2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="J2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262493</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262495</v>
@@ -26353,7 +26353,7 @@
         <v>143682.3097262495</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472429</v>
+        <v>84530.31055472417</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>116916.0581612107</v>
+        <v>116916.0581612108</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472432</v>
+        <v>84530.31055472408</v>
       </c>
       <c r="M3" t="n">
-        <v>87131.09894239504</v>
+        <v>87131.0989423951</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34584.19673510455</v>
+        <v>34584.19673510463</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,31 +26427,31 @@
         <v>302289.1079395699</v>
       </c>
       <c r="F4" t="n">
-        <v>302289.1079395698</v>
+        <v>302289.1079395699</v>
       </c>
       <c r="G4" t="n">
-        <v>369405.3002414157</v>
+        <v>369405.3002414156</v>
       </c>
       <c r="H4" t="n">
-        <v>369405.3002414157</v>
+        <v>369405.3002414156</v>
       </c>
       <c r="I4" t="n">
-        <v>369405.3002414157</v>
+        <v>369405.3002414156</v>
       </c>
       <c r="J4" t="n">
+        <v>367843.9154727358</v>
+      </c>
+      <c r="K4" t="n">
+        <v>367843.9154727358</v>
+      </c>
+      <c r="L4" t="n">
         <v>367843.9154727357</v>
-      </c>
-      <c r="K4" t="n">
-        <v>367843.9154727357</v>
-      </c>
-      <c r="L4" t="n">
-        <v>367843.9154727358</v>
       </c>
       <c r="M4" t="n">
         <v>369405.3002414156</v>
       </c>
       <c r="N4" t="n">
-        <v>369405.3002414156</v>
+        <v>369405.3002414157</v>
       </c>
       <c r="O4" t="n">
         <v>368260.9042823386</v>
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>36923.20336678313</v>
+      </c>
+      <c r="F5" t="n">
         <v>36923.20336678312</v>
       </c>
-      <c r="F5" t="n">
-        <v>36923.20336678311</v>
-      </c>
       <c r="G5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.1767143145</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.1767143145</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.1767143145</v>
       </c>
       <c r="J5" t="n">
         <v>57382.03161561136</v>
@@ -26497,19 +26497,19 @@
         <v>57382.03161561136</v>
       </c>
       <c r="L5" t="n">
-        <v>57382.03161561136</v>
+        <v>57382.03161561135</v>
       </c>
       <c r="M5" t="n">
         <v>45806.1767143145</v>
       </c>
       <c r="N5" t="n">
-        <v>45806.17671431451</v>
+        <v>45806.17671431453</v>
       </c>
       <c r="O5" t="n">
         <v>47518.94570368934</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368936</v>
+        <v>47518.94570368934</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-321152.7501671942</v>
+        <v>-321157.1637450623</v>
       </c>
       <c r="C6" t="n">
-        <v>-321152.7501671941</v>
+        <v>-321157.1637450623</v>
       </c>
       <c r="D6" t="n">
-        <v>-321152.7501671941</v>
+        <v>-321157.1637450623</v>
       </c>
       <c r="E6" t="n">
-        <v>-535386.4181047986</v>
+        <v>-535681.4219848802</v>
       </c>
       <c r="F6" t="n">
-        <v>-216180.2731858084</v>
+        <v>-216475.2770658901</v>
       </c>
       <c r="G6" t="n">
-        <v>-356059.4777842049</v>
+        <v>-356059.4777842048</v>
       </c>
       <c r="H6" t="n">
         <v>-271529.1672294806</v>
       </c>
       <c r="I6" t="n">
-        <v>-271529.1672294806</v>
+        <v>-271529.1672294807</v>
       </c>
       <c r="J6" t="n">
-        <v>-398459.6955233083</v>
+        <v>-398459.6955233084</v>
       </c>
       <c r="K6" t="n">
-        <v>-281543.6373620976</v>
+        <v>-281543.6373620978</v>
       </c>
       <c r="L6" t="n">
-        <v>-366073.947916822</v>
+        <v>-366073.9479168216</v>
       </c>
       <c r="M6" t="n">
-        <v>-358660.2661718756</v>
+        <v>-358660.2661718757</v>
       </c>
       <c r="N6" t="n">
-        <v>-271529.1672294806</v>
+        <v>-271529.1672294807</v>
       </c>
       <c r="O6" t="n">
-        <v>-306681.7369948829</v>
+        <v>-306681.736994883</v>
       </c>
       <c r="P6" t="n">
-        <v>-272097.5402597784</v>
+        <v>-272097.5402597783</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26701,10 @@
         <v>237.379489226118</v>
       </c>
       <c r="H2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="J2" t="n">
         <v>150.0440602784521</v>
@@ -26713,7 +26713,7 @@
         <v>150.0440602784521</v>
       </c>
       <c r="L2" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M2" t="n">
         <v>237.379489226118</v>
@@ -26722,7 +26722,7 @@
         <v>237.379489226118</v>
       </c>
       <c r="O2" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="P2" t="n">
         <v>220.9000151151833</v>
@@ -26796,25 +26796,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241746</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4238384241746</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="G4" t="n">
-        <v>380.4238384241746</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="H4" t="n">
-        <v>380.4238384241746</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="I4" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="K4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="L4" t="n">
         <v>691.5760929882896</v>
@@ -26823,13 +26823,13 @@
         <v>380.4238384241747</v>
       </c>
       <c r="N4" t="n">
-        <v>380.4238384241747</v>
+        <v>380.423838424175</v>
       </c>
       <c r="O4" t="n">
-        <v>431.3807775427111</v>
+        <v>431.380777542711</v>
       </c>
       <c r="P4" t="n">
-        <v>431.3807775427111</v>
+        <v>431.3807775427109</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934052</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504681</v>
+        <v>44.3811720850469</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934051</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766589</v>
+        <v>87.33542894766595</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411204</v>
+        <v>27.90169797411227</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4238384241746</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641147</v>
+        <v>311.1522545641149</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386005971</v>
+        <v>69.27158386005976</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853647</v>
+        <v>50.95693911853601</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934052</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504681</v>
+        <v>44.3811720850469</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.4238384241746</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28175,16 +28175,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="F12" t="n">
-        <v>131.7166010327128</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>125.4103569373508</v>
       </c>
       <c r="H12" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>80.15602968011628</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.49414262488443</v>
       </c>
       <c r="S12" t="n">
-        <v>131.7166010327128</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>131.7166010327128</v>
@@ -28226,7 +28226,7 @@
         <v>131.7166010327128</v>
       </c>
       <c r="V12" t="n">
-        <v>99.26113280130596</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="W12" t="n">
         <v>131.7166010327128</v>
@@ -28269,7 +28269,7 @@
         <v>131.7166010327128</v>
       </c>
       <c r="J13" t="n">
-        <v>131.7166010327128</v>
+        <v>77.4510625193078</v>
       </c>
       <c r="K13" t="n">
         <v>131.7166010327128</v>
@@ -28278,13 +28278,13 @@
         <v>131.7166010327128</v>
       </c>
       <c r="M13" t="n">
-        <v>131.7166010327128</v>
+        <v>103.6001376678593</v>
       </c>
       <c r="N13" t="n">
         <v>131.7166010327128</v>
       </c>
       <c r="O13" t="n">
-        <v>49.33459915445364</v>
+        <v>131.7166010327128</v>
       </c>
       <c r="P13" t="n">
         <v>131.7166010327128</v>
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>131.7166010327127</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
       <c r="D15" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>131.7166010327127</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.15602968011628</v>
+        <v>73.8497855847546</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,22 +28454,22 @@
         <v>83.49414262488443</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="U15" t="n">
         <v>131.7166010327127</v>
       </c>
       <c r="V15" t="n">
-        <v>15.76699017642255</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>131.7166010327127</v>
       </c>
       <c r="X15" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>131.7166010327127</v>
@@ -28512,22 +28512,22 @@
         <v>131.7166010327127</v>
       </c>
       <c r="L16" t="n">
-        <v>49.33459915445636</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="M16" t="n">
-        <v>131.7166010327127</v>
+        <v>116.6552291119063</v>
       </c>
       <c r="N16" t="n">
         <v>131.7166010327127</v>
       </c>
       <c r="O16" t="n">
-        <v>131.7166010327127</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>131.7166010327127</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.32062995745126</v>
+        <v>131.7166010327127</v>
       </c>
       <c r="R16" t="n">
         <v>131.7166010327127</v>
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28652,13 +28652,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>80.15602968011628</v>
@@ -28694,13 +28694,13 @@
         <v>166.6979539789397</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9237248774628</v>
+        <v>151.4952178249191</v>
       </c>
       <c r="V18" t="n">
-        <v>3.23047498271896</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28709,7 +28709,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28725,7 +28725,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -28740,7 +28740,7 @@
         <v>160.2266402957612</v>
       </c>
       <c r="I19" t="n">
-        <v>116.8664372014224</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J19" t="n">
         <v>77.4510625193078</v>
@@ -28776,7 +28776,7 @@
         <v>226.984188467659</v>
       </c>
       <c r="U19" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768577</v>
       </c>
       <c r="V19" t="n">
         <v>237.379489226118</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I20" t="n">
         <v>191.1372470591394</v>
@@ -28855,19 +28855,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>65.41177624042585</v>
       </c>
       <c r="C21" t="n">
-        <v>64.98920479031018</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.49414262488443</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>237.379489226118</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -29013,19 +29013,19 @@
         <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>56.9466048176856</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V22" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W22" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>38.15176894366263</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I23" t="n">
         <v>191.1372470591394</v>
@@ -29092,19 +29092,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y23" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="24">
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -29126,16 +29126,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>78.62098039054149</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
-        <v>10.22001443895213</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29168,19 +29168,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -29202,7 +29202,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>114.6849268297793</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -29214,7 +29214,7 @@
         <v>160.2266402957612</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J25" t="n">
         <v>77.4510625193078</v>
@@ -29250,16 +29250,16 @@
         <v>226.984188467659</v>
       </c>
       <c r="U25" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V25" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W25" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>45.27677098060499</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29305,7 +29305,7 @@
         <v>150.0440602784521</v>
       </c>
       <c r="M26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.0440602784525</v>
       </c>
       <c r="N26" t="n">
         <v>150.0440602784521</v>
@@ -29351,22 +29351,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>71.01343869660826</v>
       </c>
       <c r="E27" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>53.0696582029156</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
         <v>109.6433667609296</v>
@@ -29408,10 +29408,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="V27" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29439,10 +29439,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>150.0440602784521</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>150.0440602784521</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>150.0440602784521</v>
@@ -29451,7 +29451,7 @@
         <v>150.0440602784521</v>
       </c>
       <c r="I28" t="n">
-        <v>150.0440602784521</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J28" t="n">
         <v>77.4510625193078</v>
@@ -29460,22 +29460,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>81.83067411629509</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="N28" t="n">
         <v>150.0440602784521</v>
       </c>
       <c r="O28" t="n">
-        <v>150.0440602784521</v>
+        <v>24.10336573305698</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>150.0440602784521</v>
+        <v>67.32062995745126</v>
       </c>
       <c r="R28" t="n">
         <v>150.0440602784521</v>
@@ -29594,10 +29594,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29606,7 +29606,7 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H30" t="n">
-        <v>109.132039918902</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>80.15602968011628</v>
@@ -29639,25 +29639,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
         <v>150.0440602784521</v>
       </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>111.7310346327153</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>150.0440602784521</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29673,13 +29673,13 @@
         <v>150.0440602784521</v>
       </c>
       <c r="D31" t="n">
-        <v>150.0440602784521</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>150.0440602784521</v>
       </c>
       <c r="F31" t="n">
-        <v>150.0440602784521</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>150.0440602784521</v>
@@ -29688,7 +29688,7 @@
         <v>150.0440602784521</v>
       </c>
       <c r="I31" t="n">
-        <v>148.6838485916426</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="J31" t="n">
         <v>150.0440602784521</v>
@@ -29697,16 +29697,16 @@
         <v>150.0440602784521</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>150.0440602784521</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>13.86068861267113</v>
       </c>
       <c r="N31" t="n">
-        <v>9.169300783720587</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.0440602784535</v>
       </c>
       <c r="N32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y32" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="33">
@@ -29831,22 +29831,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>25.63789729401765</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.49414262488443</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U33" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>33.84891931082333</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="34">
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -29919,61 +29919,61 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I34" t="n">
         <v>148.6838485916426</v>
       </c>
       <c r="J34" t="n">
-        <v>150.0440602784521</v>
+        <v>77.4510625193078</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>101.5544282523643</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q34" t="n">
-        <v>67.32062995745126</v>
+        <v>91.42399569050949</v>
       </c>
       <c r="R34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="35">
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -30071,19 +30071,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6433667609296</v>
+        <v>33.96248035631673</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,19 +30110,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>66.66272717689166</v>
+        <v>83.49414262488443</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30201,7 +30201,7 @@
         <v>237.379489226118</v>
       </c>
       <c r="V37" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768574</v>
       </c>
       <c r="W37" t="n">
         <v>237.379489226118</v>
@@ -30210,7 +30210,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>38.15176894366246</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.359332514826</v>
+        <v>118.3593325148276</v>
       </c>
       <c r="S38" t="n">
         <v>197.5894408014587</v>
@@ -30305,10 +30305,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30317,7 +30317,7 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.49414262488443</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>213.4356708529953</v>
+        <v>22.55483599513209</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>237.379489226118</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,19 +30378,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>144.8201437964364</v>
       </c>
       <c r="G40" t="n">
         <v>167.7659706229939</v>
@@ -30402,7 +30402,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J40" t="n">
-        <v>77.45106251930781</v>
+        <v>77.4510625193078</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30447,7 +30447,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.7672419618748</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="C41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="D41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="E41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="F41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="H41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="I41" t="n">
         <v>191.1372470591394</v>
       </c>
       <c r="J41" t="n">
-        <v>201.7688902471345</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>201.7688902471339</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30511,22 +30511,22 @@
         <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="U41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="W41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H42" t="n">
-        <v>109.6433667609296</v>
+        <v>37.14595277826307</v>
       </c>
       <c r="I42" t="n">
-        <v>80.15602968011628</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,10 +30587,10 @@
         <v>83.49414262488443</v>
       </c>
       <c r="S42" t="n">
-        <v>47.56977466789495</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30605,7 +30605,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -30630,7 +30630,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>47.66532217369543</v>
+        <v>167.7659706229939</v>
       </c>
       <c r="H43" t="n">
         <v>160.2266402957612</v>
@@ -30669,19 +30669,19 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T43" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="U43" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="V43" t="n">
-        <v>220.9000151151832</v>
+        <v>100.7993666658844</v>
       </c>
       <c r="W43" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="X43" t="n">
-        <v>220.9000151151832</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -30715,7 +30715,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I44" t="n">
-        <v>191.1372470591394</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30727,7 +30727,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>69.46543959073233</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30739,10 +30739,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>201.7688902471344</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.359332514826</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="S44" t="n">
         <v>197.5894408014587</v>
@@ -30776,7 +30776,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.15602968011628</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.49414262488443</v>
+        <v>45.33091479242522</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30830,19 +30830,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>220.9000151151833</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
       <c r="W45" t="n">
-        <v>102.3987595455435</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30873,7 +30873,7 @@
         <v>160.2266402957612</v>
       </c>
       <c r="I46" t="n">
-        <v>28.58320014234369</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J46" t="n">
         <v>77.4510625193078</v>
@@ -30921,7 +30921,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>98.48400490279593</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293617</v>
+        <v>0.5016183778293618</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944951</v>
+        <v>5.137199211944953</v>
       </c>
       <c r="I11" t="n">
         <v>19.33864251126649</v>
@@ -31762,25 +31762,25 @@
         <v>42.57423279529483</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881171</v>
+        <v>63.80773872881173</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930707</v>
+        <v>79.15914215930708</v>
       </c>
       <c r="M11" t="n">
-        <v>88.07979798602997</v>
+        <v>88.07979798602999</v>
       </c>
       <c r="N11" t="n">
-        <v>89.50502120203765</v>
+        <v>89.50502120203767</v>
       </c>
       <c r="O11" t="n">
-        <v>84.51705345749693</v>
+        <v>84.51705345749694</v>
       </c>
       <c r="P11" t="n">
-        <v>72.13334975483455</v>
+        <v>72.13334975483457</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882052</v>
+        <v>54.16914159882053</v>
       </c>
       <c r="R11" t="n">
         <v>31.50978542632367</v>
@@ -31789,7 +31789,7 @@
         <v>11.43062878478659</v>
       </c>
       <c r="T11" t="n">
-        <v>2.195834448948032</v>
+        <v>2.195834448948033</v>
       </c>
       <c r="U11" t="n">
         <v>0.04012947022634893</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2683894933829459</v>
+        <v>0.268389493382946</v>
       </c>
       <c r="H12" t="n">
-        <v>2.592077475566873</v>
+        <v>2.592077475566874</v>
       </c>
       <c r="I12" t="n">
-        <v>9.240603171298797</v>
+        <v>9.240603171298799</v>
       </c>
       <c r="J12" t="n">
-        <v>25.35692139018438</v>
+        <v>25.35692139018439</v>
       </c>
       <c r="K12" t="n">
-        <v>43.33901744684176</v>
+        <v>43.33901744684177</v>
       </c>
       <c r="L12" t="n">
-        <v>58.27465732422255</v>
+        <v>58.27465732422256</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935431</v>
+        <v>68.00377645935433</v>
       </c>
       <c r="N12" t="n">
-        <v>69.8036340706812</v>
+        <v>69.80363407068121</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782749</v>
+        <v>63.85668792782751</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713465</v>
+        <v>51.25062176713467</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.25968340095289</v>
+        <v>34.2596834009529</v>
       </c>
       <c r="R12" t="n">
-        <v>16.6636915277587</v>
+        <v>16.66369152775871</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898138</v>
+        <v>4.985217124898139</v>
       </c>
       <c r="T12" t="n">
         <v>1.0817980018374</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01765720351203592</v>
+        <v>0.01765720351203593</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,31 +31908,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2250087354648511</v>
+        <v>0.2250087354648512</v>
       </c>
       <c r="H13" t="n">
         <v>2.000532211678405</v>
       </c>
       <c r="I13" t="n">
-        <v>6.766626335615706</v>
+        <v>6.766626335615708</v>
       </c>
       <c r="J13" t="n">
-        <v>15.90811759736497</v>
+        <v>15.90811759736498</v>
       </c>
       <c r="K13" t="n">
-        <v>26.14192399309815</v>
+        <v>26.14192399309816</v>
       </c>
       <c r="L13" t="n">
-        <v>33.45266236174705</v>
+        <v>33.45266236174706</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109479</v>
+        <v>35.2711420510948</v>
       </c>
       <c r="N13" t="n">
         <v>34.43247312799856</v>
       </c>
       <c r="O13" t="n">
-        <v>31.80396199097733</v>
+        <v>31.80396199097734</v>
       </c>
       <c r="P13" t="n">
         <v>27.21378378749435</v>
@@ -31944,10 +31944,10 @@
         <v>10.11721096008321</v>
       </c>
       <c r="S13" t="n">
-        <v>3.921288598964722</v>
+        <v>3.921288598964723</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225454</v>
+        <v>0.9614009606225457</v>
       </c>
       <c r="U13" t="n">
         <v>0.01227320375262826</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5016183778293617</v>
+        <v>0.5016183778293616</v>
       </c>
       <c r="H14" t="n">
         <v>5.137199211944951</v>
       </c>
       <c r="I14" t="n">
-        <v>19.33864251126649</v>
+        <v>19.33864251126648</v>
       </c>
       <c r="J14" t="n">
-        <v>42.57423279529483</v>
+        <v>42.57423279529482</v>
       </c>
       <c r="K14" t="n">
         <v>63.80773872881171</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930707</v>
+        <v>79.15914215930705</v>
       </c>
       <c r="M14" t="n">
-        <v>88.07979798602997</v>
+        <v>88.07979798602996</v>
       </c>
       <c r="N14" t="n">
-        <v>89.50502120203765</v>
+        <v>89.50502120203764</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749693</v>
+        <v>84.51705345749691</v>
       </c>
       <c r="P14" t="n">
-        <v>72.13334975483455</v>
+        <v>72.13334975483454</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882052</v>
+        <v>54.16914159882051</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632367</v>
+        <v>31.50978542632366</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478659</v>
@@ -32029,7 +32029,7 @@
         <v>2.195834448948032</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04012947022634893</v>
+        <v>0.04012947022634892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32081,13 +32081,13 @@
         <v>43.33901744684176</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422255</v>
+        <v>58.27465732422254</v>
       </c>
       <c r="M15" t="n">
         <v>68.00377645935431</v>
       </c>
       <c r="N15" t="n">
-        <v>69.8036340706812</v>
+        <v>69.80363407068118</v>
       </c>
       <c r="O15" t="n">
         <v>63.85668792782749</v>
@@ -32102,7 +32102,7 @@
         <v>16.6636915277587</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898138</v>
+        <v>4.985217124898137</v>
       </c>
       <c r="T15" t="n">
         <v>1.0817980018374</v>
@@ -32151,7 +32151,7 @@
         <v>2.000532211678405</v>
       </c>
       <c r="I16" t="n">
-        <v>6.766626335615706</v>
+        <v>6.766626335615705</v>
       </c>
       <c r="J16" t="n">
         <v>15.90811759736497</v>
@@ -32160,7 +32160,7 @@
         <v>26.14192399309815</v>
       </c>
       <c r="L16" t="n">
-        <v>33.45266236174705</v>
+        <v>33.45266236174704</v>
       </c>
       <c r="M16" t="n">
         <v>35.27114205109479</v>
@@ -32172,22 +32172,22 @@
         <v>31.80396199097733</v>
       </c>
       <c r="P16" t="n">
-        <v>27.21378378749435</v>
+        <v>27.21378378749434</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.84141329424313</v>
+        <v>18.84141329424312</v>
       </c>
       <c r="R16" t="n">
         <v>10.11721096008321</v>
       </c>
       <c r="S16" t="n">
-        <v>3.921288598964722</v>
+        <v>3.921288598964721</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225454</v>
+        <v>0.9614009606225453</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01227320375262826</v>
+        <v>0.01227320375262825</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>0.5016183778293617</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944951</v>
+        <v>5.137199211944952</v>
       </c>
       <c r="I23" t="n">
         <v>19.33864251126649</v>
@@ -32710,7 +32710,7 @@
         <v>42.57423279529483</v>
       </c>
       <c r="K23" t="n">
-        <v>63.80773872881171</v>
+        <v>63.80773872881172</v>
       </c>
       <c r="L23" t="n">
         <v>79.15914215930707</v>
@@ -32722,7 +32722,7 @@
         <v>89.50502120203765</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749693</v>
+        <v>84.51705345749694</v>
       </c>
       <c r="P23" t="n">
         <v>72.13334975483455</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2683894933829459</v>
+        <v>0.268389493382946</v>
       </c>
       <c r="H24" t="n">
         <v>2.592077475566873</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298797</v>
+        <v>9.240603171298799</v>
       </c>
       <c r="J24" t="n">
-        <v>25.35692139018438</v>
+        <v>25.35692139018439</v>
       </c>
       <c r="K24" t="n">
-        <v>43.33901744684176</v>
+        <v>43.33901744684177</v>
       </c>
       <c r="L24" t="n">
         <v>58.27465732422255</v>
       </c>
       <c r="M24" t="n">
-        <v>68.00377645935431</v>
+        <v>68.00377645935433</v>
       </c>
       <c r="N24" t="n">
         <v>69.8036340706812</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782749</v>
+        <v>63.8566879278275</v>
       </c>
       <c r="P24" t="n">
-        <v>51.25062176713465</v>
+        <v>51.25062176713466</v>
       </c>
       <c r="Q24" t="n">
         <v>34.25968340095289</v>
@@ -32819,7 +32819,7 @@
         <v>1.0817980018374</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01765720351203592</v>
+        <v>0.01765720351203593</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,7 +32862,7 @@
         <v>2.000532211678405</v>
       </c>
       <c r="I25" t="n">
-        <v>6.766626335615706</v>
+        <v>6.766626335615707</v>
       </c>
       <c r="J25" t="n">
         <v>15.90811759736497</v>
@@ -32871,16 +32871,16 @@
         <v>26.14192399309815</v>
       </c>
       <c r="L25" t="n">
-        <v>33.45266236174705</v>
+        <v>33.45266236174706</v>
       </c>
       <c r="M25" t="n">
-        <v>35.27114205109479</v>
+        <v>35.2711420510948</v>
       </c>
       <c r="N25" t="n">
         <v>34.43247312799856</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097733</v>
+        <v>31.80396199097734</v>
       </c>
       <c r="P25" t="n">
         <v>27.21378378749435</v>
@@ -32895,7 +32895,7 @@
         <v>3.921288598964722</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225454</v>
+        <v>0.9614009606225455</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262826</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5016183778293616</v>
+        <v>0.5016183778293617</v>
       </c>
       <c r="H38" t="n">
         <v>5.137199211944951</v>
       </c>
       <c r="I38" t="n">
-        <v>19.33864251126648</v>
+        <v>19.33864251126649</v>
       </c>
       <c r="J38" t="n">
-        <v>42.57423279529482</v>
+        <v>42.57423279529483</v>
       </c>
       <c r="K38" t="n">
         <v>63.80773872881171</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930705</v>
+        <v>79.15914215930707</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798602996</v>
+        <v>88.07979798602997</v>
       </c>
       <c r="N38" t="n">
-        <v>89.50502120203764</v>
+        <v>89.50502120203765</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749691</v>
+        <v>84.51705345749693</v>
       </c>
       <c r="P38" t="n">
-        <v>72.13334975483454</v>
+        <v>72.13334975483455</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882051</v>
+        <v>54.16914159882052</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632366</v>
+        <v>31.50978542632367</v>
       </c>
       <c r="S38" t="n">
         <v>11.43062878478659</v>
@@ -33925,7 +33925,7 @@
         <v>2.195834448948032</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04012947022634892</v>
+        <v>0.04012947022634893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33977,13 +33977,13 @@
         <v>43.33901744684176</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422254</v>
+        <v>58.27465732422255</v>
       </c>
       <c r="M39" t="n">
         <v>68.00377645935431</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80363407068118</v>
+        <v>69.8036340706812</v>
       </c>
       <c r="O39" t="n">
         <v>63.85668792782749</v>
@@ -33998,7 +33998,7 @@
         <v>16.6636915277587</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898137</v>
+        <v>4.985217124898138</v>
       </c>
       <c r="T39" t="n">
         <v>1.0817980018374</v>
@@ -34047,7 +34047,7 @@
         <v>2.000532211678405</v>
       </c>
       <c r="I40" t="n">
-        <v>6.766626335615705</v>
+        <v>6.766626335615706</v>
       </c>
       <c r="J40" t="n">
         <v>15.90811759736497</v>
@@ -34056,7 +34056,7 @@
         <v>26.14192399309815</v>
       </c>
       <c r="L40" t="n">
-        <v>33.45266236174704</v>
+        <v>33.45266236174705</v>
       </c>
       <c r="M40" t="n">
         <v>35.27114205109479</v>
@@ -34068,22 +34068,22 @@
         <v>31.80396199097733</v>
       </c>
       <c r="P40" t="n">
-        <v>27.21378378749434</v>
+        <v>27.21378378749435</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.84141329424312</v>
+        <v>18.84141329424313</v>
       </c>
       <c r="R40" t="n">
         <v>10.11721096008321</v>
       </c>
       <c r="S40" t="n">
-        <v>3.921288598964721</v>
+        <v>3.921288598964722</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225453</v>
+        <v>0.9614009606225454</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01227320375262825</v>
+        <v>0.01227320375262826</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068231</v>
+        <v>30.62494344068232</v>
       </c>
       <c r="K11" t="n">
         <v>167.8633002549959</v>
@@ -35416,7 +35416,7 @@
         <v>261.0539417397703</v>
       </c>
       <c r="M11" t="n">
-        <v>307.2470982515897</v>
+        <v>307.2470982515898</v>
       </c>
       <c r="N11" t="n">
         <v>297.4388820174309</v>
@@ -35428,7 +35428,7 @@
         <v>162.6990621710477</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.17844238427571</v>
+        <v>44.17844238427573</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>24.61033006392653</v>
       </c>
       <c r="K12" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L12" t="n">
-        <v>290.5606228478075</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M12" t="n">
-        <v>380.4238384241746</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="N12" t="n">
-        <v>380.4238384241746</v>
+        <v>325.6443239772654</v>
       </c>
       <c r="O12" t="n">
-        <v>49.21459538438831</v>
+        <v>315.1227627601126</v>
       </c>
       <c r="P12" t="n">
-        <v>235.7389829927416</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.26553851340498</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>135.5890331999281</v>
@@ -35574,13 +35574,13 @@
         <v>192.759288654776</v>
       </c>
       <c r="M13" t="n">
-        <v>206.5716200456482</v>
+        <v>178.4551566807947</v>
       </c>
       <c r="N13" t="n">
         <v>210.2812465399399</v>
       </c>
       <c r="O13" t="n">
-        <v>105.7236890594706</v>
+        <v>188.1056909377298</v>
       </c>
       <c r="P13" t="n">
         <v>156.2089440851006</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.62494344068231</v>
+        <v>30.6249434406823</v>
       </c>
       <c r="K14" t="n">
         <v>167.8633002549959</v>
@@ -35662,10 +35662,10 @@
         <v>235.2190232985556</v>
       </c>
       <c r="P14" t="n">
-        <v>162.6990621710477</v>
+        <v>162.6990621710476</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427568</v>
+        <v>44.17844238427571</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.61033006392653</v>
+        <v>24.61033006392652</v>
       </c>
       <c r="K15" t="n">
-        <v>169.9628154850614</v>
+        <v>10.8281039873717</v>
       </c>
       <c r="L15" t="n">
         <v>290.5606228478075</v>
       </c>
       <c r="M15" t="n">
-        <v>325.6443239772653</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="N15" t="n">
-        <v>380.4238384241746</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="O15" t="n">
         <v>315.1227627601126</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340487</v>
+        <v>54.26553851340493</v>
       </c>
       <c r="K16" t="n">
         <v>135.589033199928</v>
       </c>
       <c r="L16" t="n">
-        <v>110.3772867765196</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M16" t="n">
-        <v>206.571620045648</v>
+        <v>191.5102481248417</v>
       </c>
       <c r="N16" t="n">
-        <v>210.2812465399398</v>
+        <v>210.2812465399399</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377297</v>
+        <v>56.389089905017</v>
       </c>
       <c r="P16" t="n">
-        <v>156.2089440851005</v>
+        <v>156.2089440851006</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.39597107526147</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.16047399766981</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>169.9628154850614</v>
@@ -35969,10 +35969,10 @@
         <v>290.5606228478075</v>
       </c>
       <c r="M18" t="n">
-        <v>380.4238384241746</v>
+        <v>114.5156710484505</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="O18" t="n">
         <v>315.1227627601126</v>
@@ -35981,7 +35981,7 @@
         <v>235.7389829927416</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.61033006392653</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>290.5606228478075</v>
       </c>
       <c r="M21" t="n">
-        <v>300.6729066938558</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="N21" t="n">
-        <v>380.4238384241746</v>
+        <v>284.4784865335117</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>315.1227627601126</v>
       </c>
       <c r="P21" t="n">
         <v>235.7389829927416</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.62494344068231</v>
+        <v>30.62494344068232</v>
       </c>
       <c r="K23" t="n">
         <v>167.8633002549959</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710477</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427571</v>
+        <v>44.17844238427572</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>24.61033006392653</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L24" t="n">
-        <v>276.1107667815513</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>380.4238384241748</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>380.4238384241747</v>
       </c>
       <c r="O24" t="n">
-        <v>315.1227627601126</v>
+        <v>284.9535783771299</v>
       </c>
       <c r="P24" t="n">
-        <v>235.7389829927416</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215297</v>
+        <v>3.872432167215301</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206319</v>
+        <v>61.0426876220632</v>
       </c>
       <c r="M25" t="n">
-        <v>74.85501901293537</v>
+        <v>74.85501901293539</v>
       </c>
       <c r="N25" t="n">
-        <v>78.56464550722714</v>
+        <v>78.56464550722716</v>
       </c>
       <c r="O25" t="n">
-        <v>56.389089905017</v>
+        <v>56.38908990501701</v>
       </c>
       <c r="P25" t="n">
-        <v>24.49234305238783</v>
+        <v>24.49234305238784</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>411.0980020182224</v>
       </c>
       <c r="M26" t="n">
-        <v>457.2911585300418</v>
+        <v>457.2911585300423</v>
       </c>
       <c r="N26" t="n">
-        <v>447.4829422958829</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O26" t="n">
         <v>385.2630835770076</v>
@@ -36616,7 +36616,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362606</v>
+        <v>31.68472776362605</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36735,10 +36735,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3.610097631882894</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.62301225552082</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,7 +36747,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.360211686809487</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36756,22 +36756,22 @@
         <v>3.872432167215297</v>
       </c>
       <c r="L28" t="n">
-        <v>142.8733617383583</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M28" t="n">
-        <v>74.85501901293537</v>
+        <v>224.8990792913874</v>
       </c>
       <c r="N28" t="n">
         <v>228.6087057856792</v>
       </c>
       <c r="O28" t="n">
-        <v>206.4331501834691</v>
+        <v>80.49245563807398</v>
       </c>
       <c r="P28" t="n">
         <v>24.49234305238783</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.72343032100081</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,22 +36838,22 @@
         <v>411.0980020182224</v>
       </c>
       <c r="M29" t="n">
-        <v>457.2911585300418</v>
+        <v>457.2911585300419</v>
       </c>
       <c r="N29" t="n">
-        <v>447.4829422958829</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O29" t="n">
         <v>385.2630835770076</v>
       </c>
       <c r="P29" t="n">
-        <v>312.7431224494997</v>
+        <v>312.7431224494998</v>
       </c>
       <c r="Q29" t="n">
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362606</v>
+        <v>31.68472776362609</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.428587260239709</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.610097631882894</v>
+        <v>3.610097631882923</v>
       </c>
       <c r="F31" t="n">
-        <v>4.62301225552082</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,31 +36984,31 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.360211686809516</v>
       </c>
       <c r="J31" t="n">
-        <v>72.59299775914427</v>
+        <v>72.5929977591443</v>
       </c>
       <c r="K31" t="n">
         <v>153.9164924456674</v>
       </c>
       <c r="L31" t="n">
-        <v>61.04268762206319</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M31" t="n">
-        <v>74.85501901293537</v>
+        <v>88.7157076256065</v>
       </c>
       <c r="N31" t="n">
-        <v>87.73394629094773</v>
+        <v>78.56464550722714</v>
       </c>
       <c r="O31" t="n">
-        <v>206.4331501834691</v>
+        <v>56.389089905017</v>
       </c>
       <c r="P31" t="n">
         <v>24.49234305238783</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.72343032100081</v>
+        <v>82.72343032100083</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.6690037191344</v>
+        <v>180.6690037191343</v>
       </c>
       <c r="K32" t="n">
-        <v>317.907360533448</v>
+        <v>317.9073605334479</v>
       </c>
       <c r="L32" t="n">
-        <v>411.0980020182224</v>
+        <v>411.0980020182222</v>
       </c>
       <c r="M32" t="n">
-        <v>457.2911585300419</v>
+        <v>457.2911585300432</v>
       </c>
       <c r="N32" t="n">
-        <v>447.482942295883</v>
+        <v>447.4829422958829</v>
       </c>
       <c r="O32" t="n">
-        <v>385.2630835770076</v>
+        <v>385.2630835770075</v>
       </c>
       <c r="P32" t="n">
-        <v>312.7431224494998</v>
+        <v>312.7431224494997</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.2225026627278</v>
+        <v>194.2225026627277</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362609</v>
+        <v>31.68472776362596</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.5929977591443</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>3.872432167215297</v>
       </c>
       <c r="L34" t="n">
-        <v>211.0867479005153</v>
+        <v>211.0867479005152</v>
       </c>
       <c r="M34" t="n">
         <v>74.85501901293537</v>
       </c>
       <c r="N34" t="n">
-        <v>180.1190737595914</v>
+        <v>78.56464550722714</v>
       </c>
       <c r="O34" t="n">
-        <v>56.389089905017</v>
+        <v>206.433150183469</v>
       </c>
       <c r="P34" t="n">
-        <v>174.5364033308399</v>
+        <v>174.5364033308398</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>24.10336573305822</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>24.61033006392653</v>
       </c>
       <c r="K36" t="n">
-        <v>65.64974384243764</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>290.5606228478075</v>
       </c>
       <c r="M36" t="n">
-        <v>380.4238384241747</v>
+        <v>300.6729066938561</v>
       </c>
       <c r="N36" t="n">
         <v>380.4238384241747</v>
       </c>
       <c r="O36" t="n">
-        <v>315.1227627601126</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>235.7389829927416</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.6249434406823</v>
+        <v>30.62494344068231</v>
       </c>
       <c r="K38" t="n">
         <v>167.8633002549959</v>
@@ -37558,7 +37558,7 @@
         <v>235.2190232985556</v>
       </c>
       <c r="P38" t="n">
-        <v>162.6990621710476</v>
+        <v>162.6990621710477</v>
       </c>
       <c r="Q38" t="n">
         <v>44.17844238427571</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.61033006392652</v>
+        <v>24.61033006392653</v>
       </c>
       <c r="K39" t="n">
         <v>169.9628154850614</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>290.5606228478075</v>
       </c>
       <c r="M39" t="n">
-        <v>380.4238384241747</v>
+        <v>380.423838424175</v>
       </c>
       <c r="N39" t="n">
-        <v>380.4238384241747</v>
+        <v>89.90534098452498</v>
       </c>
       <c r="O39" t="n">
         <v>315.1227627601126</v>
       </c>
       <c r="P39" t="n">
-        <v>131.4259113501179</v>
+        <v>235.7389829927416</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.3551970507805</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215294</v>
+        <v>3.872432167215297</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206318</v>
+        <v>61.04268762206319</v>
       </c>
       <c r="M40" t="n">
         <v>74.85501901293537</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>232.3938336878168</v>
+        <v>30.62494344068231</v>
       </c>
       <c r="K41" t="n">
         <v>167.8633002549959</v>
@@ -37795,7 +37795,7 @@
         <v>235.2190232985556</v>
       </c>
       <c r="P41" t="n">
-        <v>162.6990621710477</v>
+        <v>364.4679524181815</v>
       </c>
       <c r="Q41" t="n">
         <v>44.17844238427571</v>
@@ -37859,7 +37859,7 @@
         <v>24.61033006392653</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L42" t="n">
         <v>290.5606228478075</v>
@@ -37868,7 +37868,7 @@
         <v>391.5748062873359</v>
       </c>
       <c r="N42" t="n">
-        <v>346.1308818027779</v>
+        <v>176.1680663177162</v>
       </c>
       <c r="O42" t="n">
         <v>315.1227627601126</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>29.7627680560439</v>
       </c>
       <c r="J44" t="n">
         <v>30.62494344068231</v>
@@ -38023,7 +38023,7 @@
         <v>261.0539417397703</v>
       </c>
       <c r="M44" t="n">
-        <v>307.2470982515897</v>
+        <v>376.712537842322</v>
       </c>
       <c r="N44" t="n">
         <v>297.4388820174309</v>
@@ -38035,10 +38035,10 @@
         <v>162.6990621710477</v>
       </c>
       <c r="Q44" t="n">
-        <v>245.9473326314101</v>
+        <v>44.17844238427571</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>102.5406826003573</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>24.61033006392653</v>
       </c>
       <c r="K45" t="n">
-        <v>164.0655684646181</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L45" t="n">
-        <v>290.5606228478075</v>
+        <v>284.6633758273634</v>
       </c>
       <c r="M45" t="n">
         <v>391.5748062873359</v>
